--- a/Budhót'n.xlsx
+++ b/Budhót'n.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\js199\Documents\Prace\worldbuilding\jazyky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF4BD89-9FA9-498A-AF3C-5447540AA448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966BF45E-0D86-4B25-9915-4B306E9C8C30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5205" yWindow="3300" windowWidth="10455" windowHeight="10920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="0" windowWidth="10455" windowHeight="10920" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="abeceda" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">abeceda!$A$2:$D$85</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Fráze!$A$1:$C$79</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">slovíčka!$A$1:$I$3165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">slovíčka!$A$1:$I$3242</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12773" uniqueCount="10842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13381" uniqueCount="11406">
   <si>
     <t>A</t>
   </si>
@@ -32576,6 +32576,1698 @@
   </si>
   <si>
     <t>jøgurθ</t>
+  </si>
+  <si>
+    <t>jordánský</t>
+  </si>
+  <si>
+    <t>jordthánskyj</t>
+  </si>
+  <si>
+    <t>oslavenský</t>
+  </si>
+  <si>
+    <t>oślavënczyk</t>
+  </si>
+  <si>
+    <t>jubileum</t>
+  </si>
+  <si>
+    <t>jųbilhełm</t>
+  </si>
+  <si>
+    <t>jugoslávie</t>
+  </si>
+  <si>
+    <t>juğoslávja</t>
+  </si>
+  <si>
+    <t>jugosdlávský</t>
+  </si>
+  <si>
+    <t>juğoslávskyj</t>
+  </si>
+  <si>
+    <t>jih</t>
+  </si>
+  <si>
+    <t>juğ</t>
+  </si>
+  <si>
+    <t>junior</t>
+  </si>
+  <si>
+    <t>jûnjor</t>
+  </si>
+  <si>
+    <t>jurisdikce</t>
+  </si>
+  <si>
+    <t>jûrisdiqcja</t>
+  </si>
+  <si>
+    <t>porotce</t>
+  </si>
+  <si>
+    <t>jûrisczyk</t>
+  </si>
+  <si>
+    <t>zítra</t>
+  </si>
+  <si>
+    <t>załtra</t>
+  </si>
+  <si>
+    <t>už</t>
+  </si>
+  <si>
+    <t>jorðaːnskyj</t>
+  </si>
+  <si>
+    <t>osːlavæntɕyk</t>
+  </si>
+  <si>
+    <t>jʊːbiɬɛwm</t>
+  </si>
+  <si>
+    <t>jug̠oslaːvja</t>
+  </si>
+  <si>
+    <t>jug̠oslaːvskyj</t>
+  </si>
+  <si>
+    <t>jug̠</t>
+  </si>
+  <si>
+    <t>jʊnjor</t>
+  </si>
+  <si>
+    <t>jʊrisdiqtsja</t>
+  </si>
+  <si>
+    <t>jʊristɕyk</t>
+  </si>
+  <si>
+    <t>zawtra</t>
+  </si>
+  <si>
+    <t>juʑɛ</t>
+  </si>
+  <si>
+    <t>juże</t>
+  </si>
+  <si>
+    <t>qü</t>
+  </si>
+  <si>
+    <t>kabaret</t>
+  </si>
+  <si>
+    <t>kabăreth</t>
+  </si>
+  <si>
+    <t>kábel</t>
+  </si>
+  <si>
+    <t>kabľa</t>
+  </si>
+  <si>
+    <t>kabina</t>
+  </si>
+  <si>
+    <t>qabýn</t>
+  </si>
+  <si>
+    <t>kabelový</t>
+  </si>
+  <si>
+    <t>kabľovyj</t>
+  </si>
+  <si>
+    <t>kocovina</t>
+  </si>
+  <si>
+    <t>koć</t>
+  </si>
+  <si>
+    <t>kachna</t>
+  </si>
+  <si>
+    <t>kacză</t>
+  </si>
+  <si>
+    <t>kadence</t>
+  </si>
+  <si>
+    <t>qadëncja</t>
+  </si>
+  <si>
+    <t>kadet</t>
+  </si>
+  <si>
+    <t>kadeth</t>
+  </si>
+  <si>
+    <t>čjało</t>
+  </si>
+  <si>
+    <t>personální</t>
+  </si>
+  <si>
+    <t>përsonàłnyj</t>
+  </si>
+  <si>
+    <t>káď</t>
+  </si>
+  <si>
+    <t>kádža</t>
+  </si>
+  <si>
+    <t>čenich</t>
+  </si>
+  <si>
+    <t>czenykh</t>
+  </si>
+  <si>
+    <t>kánoe</t>
+  </si>
+  <si>
+    <t>kajakh</t>
+  </si>
+  <si>
+    <t>okovy</t>
+  </si>
+  <si>
+    <t>oqoły</t>
+  </si>
+  <si>
+    <t>kakao</t>
+  </si>
+  <si>
+    <t>kaqao</t>
+  </si>
+  <si>
+    <t>kedlubna</t>
+  </si>
+  <si>
+    <t>kârfjolh</t>
+  </si>
+  <si>
+    <t>postižení</t>
+  </si>
+  <si>
+    <t>poćťÿżeňe</t>
+  </si>
+  <si>
+    <t>poćťÿżczyk</t>
+  </si>
+  <si>
+    <t>qălëndther</t>
+  </si>
+  <si>
+    <t>kalendářní</t>
+  </si>
+  <si>
+    <t>qălëndthernyj</t>
+  </si>
+  <si>
+    <t>kalifornie</t>
+  </si>
+  <si>
+    <t>qalïfornja</t>
+  </si>
+  <si>
+    <t>påpir</t>
+  </si>
+  <si>
+    <t>kalkulace</t>
+  </si>
+  <si>
+    <t>qalkulacja</t>
+  </si>
+  <si>
+    <t>kalkulovat</t>
+  </si>
+  <si>
+    <t>qalkulovač</t>
+  </si>
+  <si>
+    <t>kalorie</t>
+  </si>
+  <si>
+    <t>qalòrje</t>
+  </si>
+  <si>
+    <t>kalorický</t>
+  </si>
+  <si>
+    <t>qalòrycznyj</t>
+  </si>
+  <si>
+    <t>radiátor</t>
+  </si>
+  <si>
+    <t>radjătőr</t>
+  </si>
+  <si>
+    <t>výkal</t>
+  </si>
+  <si>
+    <t>kaluž</t>
+  </si>
+  <si>
+    <t>qalųża</t>
+  </si>
+  <si>
+    <t>qalh</t>
+  </si>
+  <si>
+    <t>kamera</t>
+  </si>
+  <si>
+    <t>qămèr</t>
+  </si>
+  <si>
+    <t>činžovní dům</t>
+  </si>
+  <si>
+    <t>kameraman</t>
+  </si>
+  <si>
+    <t>qămèrczyk</t>
+  </si>
+  <si>
+    <t>kámen</t>
+  </si>
+  <si>
+    <t>kàmjeň</t>
+  </si>
+  <si>
+    <t>kàmjeňića</t>
+  </si>
+  <si>
+    <t>kampaň</t>
+  </si>
+  <si>
+    <t>qâmpaň</t>
+  </si>
+  <si>
+    <t>kamenný</t>
+  </si>
+  <si>
+    <t>kàmjenyj</t>
+  </si>
+  <si>
+    <t>kamenitý</t>
+  </si>
+  <si>
+    <t>kàmjeňistyj</t>
+  </si>
+  <si>
+    <t>kanadský</t>
+  </si>
+  <si>
+    <t>qańadthskyj</t>
+  </si>
+  <si>
+    <t>kanál</t>
+  </si>
+  <si>
+    <t>kanal</t>
+  </si>
+  <si>
+    <t>kanalizace</t>
+  </si>
+  <si>
+    <t>kanalizacja</t>
+  </si>
+  <si>
+    <t>pohovka</t>
+  </si>
+  <si>
+    <t>kanapka</t>
+  </si>
+  <si>
+    <t>sófa</t>
+  </si>
+  <si>
+    <t>ğałcz</t>
+  </si>
+  <si>
+    <t>divan</t>
+  </si>
+  <si>
+    <t>ďyvan</t>
+  </si>
+  <si>
+    <t>sendvič</t>
+  </si>
+  <si>
+    <t>sèndłycz</t>
+  </si>
+  <si>
+    <t>bjûro</t>
+  </si>
+  <si>
+    <t>qancëlárja</t>
+  </si>
+  <si>
+    <t>kancléř</t>
+  </si>
+  <si>
+    <t>qanclerh</t>
+  </si>
+  <si>
+    <t>kandidát</t>
+  </si>
+  <si>
+    <t>qandthydatt</t>
+  </si>
+  <si>
+    <t>kandidovat</t>
+  </si>
+  <si>
+    <t>qandthydovač</t>
+  </si>
+  <si>
+    <t>kanonizovat</t>
+  </si>
+  <si>
+    <t>qanońyzovač</t>
+  </si>
+  <si>
+    <t>papírový drak</t>
+  </si>
+  <si>
+    <t>szarqan</t>
+  </si>
+  <si>
+    <t>kaňon</t>
+  </si>
+  <si>
+    <t>kaňųn</t>
+  </si>
+  <si>
+    <t>kraj</t>
+  </si>
+  <si>
+    <t>kantor</t>
+  </si>
+  <si>
+    <t>qańtor</t>
+  </si>
+  <si>
+    <t>vaľutňíća</t>
+  </si>
+  <si>
+    <t>kapela</t>
+  </si>
+  <si>
+    <t>qapéĺa</t>
+  </si>
+  <si>
+    <t>kapitalismus</t>
+  </si>
+  <si>
+    <t>kapithalismûs</t>
+  </si>
+  <si>
+    <t>kapitál</t>
+  </si>
+  <si>
+    <t>kapithál</t>
+  </si>
+  <si>
+    <t>kapitalistický</t>
+  </si>
+  <si>
+    <t>kapithalistycznyj</t>
+  </si>
+  <si>
+    <t>kapitulace</t>
+  </si>
+  <si>
+    <t>qapîthulácja</t>
+  </si>
+  <si>
+    <t>kapitulovat</t>
+  </si>
+  <si>
+    <t>qapîthulovač</t>
+  </si>
+  <si>
+    <t>kapka</t>
+  </si>
+  <si>
+    <t>kapat</t>
+  </si>
+  <si>
+    <t>kâpač</t>
+  </si>
+  <si>
+    <t>kâpľa</t>
+  </si>
+  <si>
+    <t>rozmar</t>
+  </si>
+  <si>
+    <t>qâpríz</t>
+  </si>
+  <si>
+    <t>rozmarný</t>
+  </si>
+  <si>
+    <t>qâpríznyj</t>
+  </si>
+  <si>
+    <t>trucovat</t>
+  </si>
+  <si>
+    <t>qâpríšič</t>
+  </si>
+  <si>
+    <t>kàpsųla</t>
+  </si>
+  <si>
+    <t>zelí</t>
+  </si>
+  <si>
+    <t>kapûstta</t>
+  </si>
+  <si>
+    <t>kár</t>
+  </si>
+  <si>
+    <t>kulomet</t>
+  </si>
+  <si>
+    <t>guľomëth</t>
+  </si>
+  <si>
+    <t>trestat</t>
+  </si>
+  <si>
+    <t>kárač</t>
+  </si>
+  <si>
+    <t>trestný</t>
+  </si>
+  <si>
+    <t>kárnyj</t>
+  </si>
+  <si>
+    <t>křižník</t>
+  </si>
+  <si>
+    <t>krucjin</t>
+  </si>
+  <si>
+    <t>kříž</t>
+  </si>
+  <si>
+    <t>krucjus</t>
+  </si>
+  <si>
+    <t>karczma</t>
+  </si>
+  <si>
+    <t>kardiolog</t>
+  </si>
+  <si>
+    <t>szercoloğ</t>
+  </si>
+  <si>
+    <t>kardiologie</t>
+  </si>
+  <si>
+    <t>szercoloğja</t>
+  </si>
+  <si>
+    <t>kariéra</t>
+  </si>
+  <si>
+    <t>kårjéra</t>
+  </si>
+  <si>
+    <t>kariérista</t>
+  </si>
+  <si>
+    <t>kårjérczyk</t>
+  </si>
+  <si>
+    <t>krmit</t>
+  </si>
+  <si>
+    <t>kormyč</t>
+  </si>
+  <si>
+    <t>krmný</t>
+  </si>
+  <si>
+    <t>kormnyj</t>
+  </si>
+  <si>
+    <t>karneval</t>
+  </si>
+  <si>
+    <t>rèj</t>
+  </si>
+  <si>
+    <t>kharp</t>
+  </si>
+  <si>
+    <t>szaran</t>
+  </si>
+  <si>
+    <t>karta</t>
+  </si>
+  <si>
+    <t>kártă</t>
+  </si>
+  <si>
+    <t>kreditní karta</t>
+  </si>
+  <si>
+    <t>kredthitnaekártă</t>
+  </si>
+  <si>
+    <t>kårlykh</t>
+  </si>
+  <si>
+    <t>kasa</t>
+  </si>
+  <si>
+    <t>qăsa</t>
+  </si>
+  <si>
+    <t>kaiserka</t>
+  </si>
+  <si>
+    <t>kâsjerkha</t>
+  </si>
+  <si>
+    <t>kasový</t>
+  </si>
+  <si>
+    <t>qăsovyj</t>
+  </si>
+  <si>
+    <t>koszâ</t>
+  </si>
+  <si>
+    <t>kašel</t>
+  </si>
+  <si>
+    <t>kaszëlh</t>
+  </si>
+  <si>
+    <t>kašlat</t>
+  </si>
+  <si>
+    <t>kaszlač</t>
+  </si>
+  <si>
+    <t>kaštan</t>
+  </si>
+  <si>
+    <t>kăsztán</t>
+  </si>
+  <si>
+    <t>kašub</t>
+  </si>
+  <si>
+    <t>kaszûb</t>
+  </si>
+  <si>
+    <t>kašubský</t>
+  </si>
+  <si>
+    <t>kaszûbskyj</t>
+  </si>
+  <si>
+    <t>katastrofa</t>
+  </si>
+  <si>
+    <t>kattastrųf</t>
+  </si>
+  <si>
+    <t>katastrofický</t>
+  </si>
+  <si>
+    <t>kattastrųficznyj</t>
+  </si>
+  <si>
+    <t>katalog</t>
+  </si>
+  <si>
+    <t>kâtaloğ</t>
+  </si>
+  <si>
+    <t>katedra</t>
+  </si>
+  <si>
+    <t>kâtedrha</t>
+  </si>
+  <si>
+    <t>kategorie</t>
+  </si>
+  <si>
+    <t>kăteğòrja</t>
+  </si>
+  <si>
+    <t>katolický</t>
+  </si>
+  <si>
+    <t>katowskyj</t>
+  </si>
+  <si>
+    <t>katolík</t>
+  </si>
+  <si>
+    <t>katowjeć</t>
+  </si>
+  <si>
+    <t>qɯ</t>
+  </si>
+  <si>
+    <t>kaba̠rɛθ</t>
+  </si>
+  <si>
+    <t>kabʎa</t>
+  </si>
+  <si>
+    <t>qabyːn</t>
+  </si>
+  <si>
+    <t>kabʎovyj</t>
+  </si>
+  <si>
+    <t>kotsː</t>
+  </si>
+  <si>
+    <t>katɕa̠</t>
+  </si>
+  <si>
+    <t>qadæntsja</t>
+  </si>
+  <si>
+    <t>kadɛθ</t>
+  </si>
+  <si>
+    <t>tʃjawo</t>
+  </si>
+  <si>
+    <t>pærsonɐwnyj</t>
+  </si>
+  <si>
+    <t>kaːdʒa</t>
+  </si>
+  <si>
+    <t>tɕɛnyʁ</t>
+  </si>
+  <si>
+    <t>kajaʁ</t>
+  </si>
+  <si>
+    <t>oqowy</t>
+  </si>
+  <si>
+    <t>kʌrfjoɬ</t>
+  </si>
+  <si>
+    <t>potsːʈʏʑɛɲɛ</t>
+  </si>
+  <si>
+    <t>potsːʈʏʑtɕyk</t>
+  </si>
+  <si>
+    <t>qa̠lænðɛr</t>
+  </si>
+  <si>
+    <t>qa̠lænðɛtnyj</t>
+  </si>
+  <si>
+    <t>qalɪfornja</t>
+  </si>
+  <si>
+    <t>pɒpir</t>
+  </si>
+  <si>
+    <t>qalkulatsja</t>
+  </si>
+  <si>
+    <t>qalkulovatʃ</t>
+  </si>
+  <si>
+    <t>qalørjɛ</t>
+  </si>
+  <si>
+    <t>qalørytɕnyj</t>
+  </si>
+  <si>
+    <t>radja̠təːr</t>
+  </si>
+  <si>
+    <t>qaɬ</t>
+  </si>
+  <si>
+    <t>qalʊːʑa</t>
+  </si>
+  <si>
+    <t>qa̠mɛ̠r</t>
+  </si>
+  <si>
+    <t>qa̠mɛ̠rtɕyk</t>
+  </si>
+  <si>
+    <t>kɐmjɛɲ</t>
+  </si>
+  <si>
+    <t>kɐmjɛɲitsːa</t>
+  </si>
+  <si>
+    <t>qʌmpaɲ</t>
+  </si>
+  <si>
+    <t>kɐmjɛnyj</t>
+  </si>
+  <si>
+    <t>kɐmjɛɲistyj</t>
+  </si>
+  <si>
+    <t>qaŋaðskyj</t>
+  </si>
+  <si>
+    <t>kanalizatsja</t>
+  </si>
+  <si>
+    <t>soːfa</t>
+  </si>
+  <si>
+    <t>g̠awtɕ</t>
+  </si>
+  <si>
+    <t>ɖyvan</t>
+  </si>
+  <si>
+    <t>sɛ̠nwytɕ</t>
+  </si>
+  <si>
+    <t>bjʊro</t>
+  </si>
+  <si>
+    <t>qantsælaːrja</t>
+  </si>
+  <si>
+    <t>qantslɛɾ</t>
+  </si>
+  <si>
+    <t>qanðydatː</t>
+  </si>
+  <si>
+    <t>qanðydovatʃ</t>
+  </si>
+  <si>
+    <t>qanoŋyzovatʃ</t>
+  </si>
+  <si>
+    <t>ɕarqan</t>
+  </si>
+  <si>
+    <t>kaɲʊːn</t>
+  </si>
+  <si>
+    <t>qaŋtor</t>
+  </si>
+  <si>
+    <t>vaʎurɲiːtsːa</t>
+  </si>
+  <si>
+    <t>kʌpatʃ</t>
+  </si>
+  <si>
+    <t>qapɛːlːa</t>
+  </si>
+  <si>
+    <t>kapiθalismʊs</t>
+  </si>
+  <si>
+    <t>kapiθaːl</t>
+  </si>
+  <si>
+    <t>kapiθalistytɕnyj</t>
+  </si>
+  <si>
+    <t>qapɥθulaːtsja</t>
+  </si>
+  <si>
+    <t>qapɥθulovatʃ</t>
+  </si>
+  <si>
+    <t>kʌpʎa</t>
+  </si>
+  <si>
+    <t>qʌpriːz</t>
+  </si>
+  <si>
+    <t>qʌpriːznyj</t>
+  </si>
+  <si>
+    <t>qʌpriːʃitʃ</t>
+  </si>
+  <si>
+    <t>kɐpsʊːla</t>
+  </si>
+  <si>
+    <t>kapʊstːa</t>
+  </si>
+  <si>
+    <t>kaːr</t>
+  </si>
+  <si>
+    <t>guʎomæθ</t>
+  </si>
+  <si>
+    <t>kaːratʃ</t>
+  </si>
+  <si>
+    <t>kaːrnyj</t>
+  </si>
+  <si>
+    <t>krutsjin</t>
+  </si>
+  <si>
+    <t>krutsjus</t>
+  </si>
+  <si>
+    <t>kartɕma</t>
+  </si>
+  <si>
+    <t>ɕɛrtsolog̠</t>
+  </si>
+  <si>
+    <t>ɕɛrtsolog̠ja</t>
+  </si>
+  <si>
+    <t>kɒrjɛːra</t>
+  </si>
+  <si>
+    <t>kɒrjɛːrtɕyk</t>
+  </si>
+  <si>
+    <t>kormytʃ</t>
+  </si>
+  <si>
+    <t>rɛ̠j</t>
+  </si>
+  <si>
+    <t>ʁarp</t>
+  </si>
+  <si>
+    <t>ɕaran</t>
+  </si>
+  <si>
+    <t>kaːrta̠</t>
+  </si>
+  <si>
+    <t>krɛðytnaɛkaːrta̠</t>
+  </si>
+  <si>
+    <t>kɒrlyʁ</t>
+  </si>
+  <si>
+    <t>qa̠sa</t>
+  </si>
+  <si>
+    <t>kʌsjɛrʁa</t>
+  </si>
+  <si>
+    <t>qa̠sovyj</t>
+  </si>
+  <si>
+    <t>koɕʌ</t>
+  </si>
+  <si>
+    <t>kaɕæɬ</t>
+  </si>
+  <si>
+    <t>kaɕlatʃ</t>
+  </si>
+  <si>
+    <t>ka̠ɕtaːn</t>
+  </si>
+  <si>
+    <t>kaɕʊb</t>
+  </si>
+  <si>
+    <t>kaɕʊbskyj</t>
+  </si>
+  <si>
+    <t>katːastrʊːf</t>
+  </si>
+  <si>
+    <t>katːastrʊːfitɕnyj</t>
+  </si>
+  <si>
+    <t>kʌtalog̠</t>
+  </si>
+  <si>
+    <t>kʌtɛdɾa</t>
+  </si>
+  <si>
+    <t>ka̠tɛg̠ørja</t>
+  </si>
+  <si>
+    <t>katovːskyj</t>
+  </si>
+  <si>
+    <t>katovːjɛtsː</t>
+  </si>
+  <si>
+    <t>káva</t>
+  </si>
+  <si>
+    <t>kao</t>
+  </si>
+  <si>
+    <t>kafè</t>
+  </si>
+  <si>
+    <t>kus</t>
+  </si>
+  <si>
+    <t>k's</t>
+  </si>
+  <si>
+    <t>k'sczik</t>
+  </si>
+  <si>
+    <t>kavárna</t>
+  </si>
+  <si>
+    <t>qaoreň</t>
+  </si>
+  <si>
+    <t>bïstrò</t>
+  </si>
+  <si>
+    <t>bûfeth</t>
+  </si>
+  <si>
+    <t>kávový</t>
+  </si>
+  <si>
+    <t>qaovyj</t>
+  </si>
+  <si>
+    <t>mytí</t>
+  </si>
+  <si>
+    <t>kûpaňe</t>
+  </si>
+  <si>
+    <t>koupel</t>
+  </si>
+  <si>
+    <t>kûpeľa</t>
+  </si>
+  <si>
+    <t>lázně</t>
+  </si>
+  <si>
+    <t>kųpeľe</t>
+  </si>
+  <si>
+    <t>termální lázně</t>
+  </si>
+  <si>
+    <t>thermálqje</t>
+  </si>
+  <si>
+    <t>termální</t>
+  </si>
+  <si>
+    <t>thermálnyj</t>
+  </si>
+  <si>
+    <t>qąsač</t>
+  </si>
+  <si>
+    <t>hryzat</t>
+  </si>
+  <si>
+    <t>ğryzač</t>
+  </si>
+  <si>
+    <t>kocour</t>
+  </si>
+  <si>
+    <t>palec</t>
+  </si>
+  <si>
+    <t>pálëc</t>
+  </si>
+  <si>
+    <t>palec na noze</t>
+  </si>
+  <si>
+    <t>kczukh</t>
+  </si>
+  <si>
+    <t>kefír</t>
+  </si>
+  <si>
+    <t>qefür</t>
+  </si>
+  <si>
+    <t>číšník</t>
+  </si>
+  <si>
+    <t>oficjanthczyk</t>
+  </si>
+  <si>
+    <t>czaszczyq</t>
+  </si>
+  <si>
+    <t>kogdá</t>
+  </si>
+  <si>
+    <t>kjëdthy</t>
+  </si>
+  <si>
+    <t>kalich</t>
+  </si>
+  <si>
+    <t>czasza</t>
+  </si>
+  <si>
+    <t>klobása</t>
+  </si>
+  <si>
+    <t>kolhbásă</t>
+  </si>
+  <si>
+    <t>výhonek</t>
+  </si>
+  <si>
+    <t>łyhonokh</t>
+  </si>
+  <si>
+    <t>řídit</t>
+  </si>
+  <si>
+    <t>rjađyč</t>
+  </si>
+  <si>
+    <t>řídit auto</t>
+  </si>
+  <si>
+    <t>kjerovač</t>
+  </si>
+  <si>
+    <t>říditelný</t>
+  </si>
+  <si>
+    <t>rjađytelnyj</t>
+  </si>
+  <si>
+    <t>rjađytelczyk</t>
+  </si>
+  <si>
+    <t>řidič</t>
+  </si>
+  <si>
+    <t>kjerofczyk</t>
+  </si>
+  <si>
+    <t>řidit nemotorového vozidla</t>
+  </si>
+  <si>
+    <t>szoférh</t>
+  </si>
+  <si>
+    <t>volant</t>
+  </si>
+  <si>
+    <t>kjerant</t>
+  </si>
+  <si>
+    <t>směr</t>
+  </si>
+  <si>
+    <t>smër</t>
+  </si>
+  <si>
+    <t>rozcestník</t>
+  </si>
+  <si>
+    <t>skazâthelh</t>
+  </si>
+  <si>
+    <t>kyj</t>
+  </si>
+  <si>
+    <t>kâj</t>
+  </si>
+  <si>
+    <t>palice</t>
+  </si>
+  <si>
+    <t>czağan</t>
+  </si>
+  <si>
+    <t>několik</t>
+  </si>
+  <si>
+    <t>sqïľko</t>
+  </si>
+  <si>
+    <t>kilogram</t>
+  </si>
+  <si>
+    <t>kïlo</t>
+  </si>
+  <si>
+    <t>gram</t>
+  </si>
+  <si>
+    <t>grham</t>
+  </si>
+  <si>
+    <t>kilometr</t>
+  </si>
+  <si>
+    <t>kïlomëther</t>
+  </si>
+  <si>
+    <t>metr</t>
+  </si>
+  <si>
+    <t>mëther</t>
+  </si>
+  <si>
+    <t>kino</t>
+  </si>
+  <si>
+    <t>kinó</t>
+  </si>
+  <si>
+    <t>ejga</t>
+  </si>
+  <si>
+    <t>kinematografie</t>
+  </si>
+  <si>
+    <t>kinómatografíja</t>
+  </si>
+  <si>
+    <t>kiosek</t>
+  </si>
+  <si>
+    <t>kjoskh</t>
+  </si>
+  <si>
+    <t>kynout</t>
+  </si>
+  <si>
+    <t>k'pječ</t>
+  </si>
+  <si>
+    <t>vrječ</t>
+  </si>
+  <si>
+    <t>chomáč</t>
+  </si>
+  <si>
+    <t>qlokh</t>
+  </si>
+  <si>
+    <t>pokynout</t>
+  </si>
+  <si>
+    <t>mańyč</t>
+  </si>
+  <si>
+    <t>klas</t>
+  </si>
+  <si>
+    <t>qlhůs</t>
+  </si>
+  <si>
+    <t>třída</t>
+  </si>
+  <si>
+    <t>qlaśa</t>
+  </si>
+  <si>
+    <t>tleskat</t>
+  </si>
+  <si>
+    <t>plískač</t>
+  </si>
+  <si>
+    <t>klec</t>
+  </si>
+  <si>
+    <t>kletkha</t>
+  </si>
+  <si>
+    <t>klasický</t>
+  </si>
+  <si>
+    <t>qlhasycznyj</t>
+  </si>
+  <si>
+    <t>klasifikace</t>
+  </si>
+  <si>
+    <t>qlasyfikácja</t>
+  </si>
+  <si>
+    <t>třídit</t>
+  </si>
+  <si>
+    <t>trzydžič</t>
+  </si>
+  <si>
+    <t>cvokh</t>
+  </si>
+  <si>
+    <t>šotek</t>
+  </si>
+  <si>
+    <t>szutt</t>
+  </si>
+  <si>
+    <t>qlhałn</t>
+  </si>
+  <si>
+    <t>klavír</t>
+  </si>
+  <si>
+    <t>pijanitûr</t>
+  </si>
+  <si>
+    <t>nadávat</t>
+  </si>
+  <si>
+    <t>kléč</t>
+  </si>
+  <si>
+    <t>lepit</t>
+  </si>
+  <si>
+    <t>gleč</t>
+  </si>
+  <si>
+    <t>lepidlo</t>
+  </si>
+  <si>
+    <t>glej</t>
+  </si>
+  <si>
+    <t>klíště</t>
+  </si>
+  <si>
+    <t>klešcza</t>
+  </si>
+  <si>
+    <t>kleště</t>
+  </si>
+  <si>
+    <t>qleszcze</t>
+  </si>
+  <si>
+    <t>klečet</t>
+  </si>
+  <si>
+    <t>klheczač</t>
+  </si>
+  <si>
+    <t>klient</t>
+  </si>
+  <si>
+    <t>kľenth</t>
+  </si>
+  <si>
+    <t>klikat</t>
+  </si>
+  <si>
+    <t>klikač</t>
+  </si>
+  <si>
+    <t>kliknutí</t>
+  </si>
+  <si>
+    <t>kliknučje</t>
+  </si>
+  <si>
+    <t>klimatizace</t>
+  </si>
+  <si>
+    <t>klimatÿzácja</t>
+  </si>
+  <si>
+    <t>klín</t>
+  </si>
+  <si>
+    <t>qlýn</t>
+  </si>
+  <si>
+    <t>klinika</t>
+  </si>
+  <si>
+    <t>qlínikh</t>
+  </si>
+  <si>
+    <t>klub</t>
+  </si>
+  <si>
+    <t>qlhăb</t>
+  </si>
+  <si>
+    <t>klubový</t>
+  </si>
+  <si>
+    <t>qlhăbovyj</t>
+  </si>
+  <si>
+    <t>klíč</t>
+  </si>
+  <si>
+    <t>kľucz</t>
+  </si>
+  <si>
+    <t>klíčový</t>
+  </si>
+  <si>
+    <t>kľuczovyj</t>
+  </si>
+  <si>
+    <t>lhát</t>
+  </si>
+  <si>
+    <t>lgàč</t>
+  </si>
+  <si>
+    <t>qlhàmáč</t>
+  </si>
+  <si>
+    <t>lež</t>
+  </si>
+  <si>
+    <t>loż</t>
+  </si>
+  <si>
+    <t>klást</t>
+  </si>
+  <si>
+    <t>qlaszč</t>
+  </si>
+  <si>
+    <t>klanit se</t>
+  </si>
+  <si>
+    <t>klaňjač sa</t>
+  </si>
+  <si>
+    <t>kláda</t>
+  </si>
+  <si>
+    <t>kłóda</t>
+  </si>
+  <si>
+    <t>problém</t>
+  </si>
+  <si>
+    <t>prųblhem</t>
+  </si>
+  <si>
+    <t>problémový</t>
+  </si>
+  <si>
+    <t>prųblhemovyj</t>
+  </si>
+  <si>
+    <t>problémová osoba</t>
+  </si>
+  <si>
+    <t>prųblhemczyk</t>
+  </si>
+  <si>
+    <t>sûra</t>
+  </si>
+  <si>
+    <t>hádka</t>
+  </si>
+  <si>
+    <t>kafɛ̠</t>
+  </si>
+  <si>
+    <t>k'stɕyk</t>
+  </si>
+  <si>
+    <t>qaorɛɲ</t>
+  </si>
+  <si>
+    <t>bɪstrø</t>
+  </si>
+  <si>
+    <t>bʊfɛθ</t>
+  </si>
+  <si>
+    <t>kʊpaɲɛ</t>
+  </si>
+  <si>
+    <t>kʊpɛʎa</t>
+  </si>
+  <si>
+    <t>kʊːpɛʎe</t>
+  </si>
+  <si>
+    <t>θɛrmaːlqjɛ</t>
+  </si>
+  <si>
+    <t>θɛrmaːlnyj</t>
+  </si>
+  <si>
+    <t>qɑsatʃ</t>
+  </si>
+  <si>
+    <t>g̠ryzatʃ</t>
+  </si>
+  <si>
+    <t>paːlæts</t>
+  </si>
+  <si>
+    <t>ktɕuʁ</t>
+  </si>
+  <si>
+    <t>qɛfɯr</t>
+  </si>
+  <si>
+    <t>ofitsjanθtɕyk</t>
+  </si>
+  <si>
+    <t>tɕaɕtɕyq</t>
+  </si>
+  <si>
+    <t>kogdaː</t>
+  </si>
+  <si>
+    <t>kjæðy</t>
+  </si>
+  <si>
+    <t>tɕaɕa</t>
+  </si>
+  <si>
+    <t>koɬbaːa̠</t>
+  </si>
+  <si>
+    <t>wyhonoʁ</t>
+  </si>
+  <si>
+    <t>rjadʑytʃ</t>
+  </si>
+  <si>
+    <t>kjɛrovatʃ</t>
+  </si>
+  <si>
+    <t>rjadʑtɛlnyj</t>
+  </si>
+  <si>
+    <t>rjadʑytɛltɕyk</t>
+  </si>
+  <si>
+    <t>kjɛroftɕyk</t>
+  </si>
+  <si>
+    <t>ɕofɛːɾ</t>
+  </si>
+  <si>
+    <t>kjɛrant</t>
+  </si>
+  <si>
+    <t>smær</t>
+  </si>
+  <si>
+    <t>skazʌθɛɬ</t>
+  </si>
+  <si>
+    <t>kʌj</t>
+  </si>
+  <si>
+    <t>tɕag̠an</t>
+  </si>
+  <si>
+    <t>sqɪʎko</t>
+  </si>
+  <si>
+    <t>kɪlo</t>
+  </si>
+  <si>
+    <t>gɾam</t>
+  </si>
+  <si>
+    <t>kɪlomæθɛr</t>
+  </si>
+  <si>
+    <t>mæθɛr</t>
+  </si>
+  <si>
+    <t>kinoː</t>
+  </si>
+  <si>
+    <t>ɛjga</t>
+  </si>
+  <si>
+    <t>kinoːmatografiːja</t>
+  </si>
+  <si>
+    <t>kjosʁ</t>
+  </si>
+  <si>
+    <t>k'pjɛtʃ</t>
+  </si>
+  <si>
+    <t>vrjɛtʃ</t>
+  </si>
+  <si>
+    <t>qloʁ</t>
+  </si>
+  <si>
+    <t>maŋytʃ</t>
+  </si>
+  <si>
+    <t>qɬʉs</t>
+  </si>
+  <si>
+    <t>qlasːa</t>
+  </si>
+  <si>
+    <t>pliːskatʃ</t>
+  </si>
+  <si>
+    <t>klɛtʁa</t>
+  </si>
+  <si>
+    <t>qɬasytɕnyj</t>
+  </si>
+  <si>
+    <t>qlasyfikaːtsja</t>
+  </si>
+  <si>
+    <t>tɽydʒitʃ</t>
+  </si>
+  <si>
+    <t>tsvoʁ</t>
+  </si>
+  <si>
+    <t>ɕutː</t>
+  </si>
+  <si>
+    <t>qɬawn</t>
+  </si>
+  <si>
+    <t>pijanitʊr</t>
+  </si>
+  <si>
+    <t>klɛːtʃ</t>
+  </si>
+  <si>
+    <t>glɛtʃ</t>
+  </si>
+  <si>
+    <t>glɛj</t>
+  </si>
+  <si>
+    <t>klɛʃtɕa</t>
+  </si>
+  <si>
+    <t>qlɛɕtɕɛ</t>
+  </si>
+  <si>
+    <t>kɬɛtɕatʃ</t>
+  </si>
+  <si>
+    <t>kʎɛnθ</t>
+  </si>
+  <si>
+    <t>klikatʃ</t>
+  </si>
+  <si>
+    <t>kliknutʃjɛ</t>
+  </si>
+  <si>
+    <t>klimatʏzaːtsja</t>
+  </si>
+  <si>
+    <t>qlyːn</t>
+  </si>
+  <si>
+    <t>qliːniʁ</t>
+  </si>
+  <si>
+    <t>qɬa̠b</t>
+  </si>
+  <si>
+    <t>qɬa̠bovyj</t>
+  </si>
+  <si>
+    <t>kʎutɕ</t>
+  </si>
+  <si>
+    <t>kʎutɕovyj</t>
+  </si>
+  <si>
+    <t>lgaːtʃ</t>
+  </si>
+  <si>
+    <t>qɬɐmaːtʃ</t>
+  </si>
+  <si>
+    <t>loʑ</t>
+  </si>
+  <si>
+    <t>qlaɕtʃ</t>
+  </si>
+  <si>
+    <t>klaɲjatʃ sa</t>
+  </si>
+  <si>
+    <t>kwoːda</t>
+  </si>
+  <si>
+    <t>prʊːbɬɛm</t>
+  </si>
+  <si>
+    <t>prʊːbɬɛmtɕyk</t>
+  </si>
+  <si>
+    <t>prʊːbɬɛmovyj</t>
+  </si>
+  <si>
+    <t>sʊra</t>
   </si>
 </sst>
 </file>
@@ -33007,7 +34699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -33077,6 +34769,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -35650,14 +37354,14 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="41" t="s">
+      <c r="A99" s="45" t="s">
         <v>5827</v>
       </c>
-      <c r="B99" s="41"/>
-      <c r="C99" s="41"/>
-      <c r="D99" s="41"/>
-      <c r="E99" s="41"/>
-      <c r="F99" s="41"/>
+      <c r="B99" s="45"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="45"/>
+      <c r="F99" s="45"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -35844,12 +37548,12 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="42" t="s">
+      <c r="A123" s="46" t="s">
         <v>5912</v>
       </c>
-      <c r="B123" s="42"/>
-      <c r="C123" s="42"/>
-      <c r="D123" s="42"/>
+      <c r="B123" s="46"/>
+      <c r="C123" s="46"/>
+      <c r="D123" s="46"/>
       <c r="E123" s="38"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -37162,10 +38866,10 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="63" t="s">
         <v>4091</v>
       </c>
-      <c r="B23" s="59"/>
+      <c r="B23" s="63"/>
       <c r="C23" t="s">
         <v>4052</v>
       </c>
@@ -37492,10 +39196,10 @@
       <c r="B1" t="s">
         <v>7089</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="77" t="s">
         <v>10243</v>
       </c>
-      <c r="D1" s="73"/>
+      <c r="D1" s="77"/>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -37504,8 +39208,8 @@
       <c r="B2" t="s">
         <v>8595</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -37514,10 +39218,10 @@
       <c r="B3" t="s">
         <v>9778</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="63" t="s">
         <v>9789</v>
       </c>
-      <c r="D3" s="59"/>
+      <c r="D3" s="63"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -37526,8 +39230,8 @@
       <c r="B4" t="s">
         <v>9780</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -37536,8 +39240,8 @@
       <c r="B5" t="s">
         <v>9782</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -38469,11 +40173,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBE77DF-4BDA-494E-B0AB-DFB746BADB62}">
-  <dimension ref="A1:I3168"/>
+  <dimension ref="A1:I3368"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3169" sqref="C3169"/>
+      <pane ySplit="1" topLeftCell="A3346" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3369" sqref="C3369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -74349,8 +76053,2232 @@
         <v>10814</v>
       </c>
     </row>
+    <row r="3169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3169" s="41" t="s">
+        <v>10842</v>
+      </c>
+      <c r="B3169" s="41" t="s">
+        <v>10843</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>10863</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3170" s="41" t="s">
+        <v>10844</v>
+      </c>
+      <c r="B3170" s="41" t="s">
+        <v>10845</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>10864</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3171" s="41" t="s">
+        <v>10846</v>
+      </c>
+      <c r="B3171" s="41" t="s">
+        <v>10847</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>10865</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3172" s="41" t="s">
+        <v>10848</v>
+      </c>
+      <c r="B3172" s="41" t="s">
+        <v>10849</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>10866</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3173" s="41" t="s">
+        <v>10850</v>
+      </c>
+      <c r="B3173" s="41" t="s">
+        <v>10851</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>10867</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3174" s="41" t="s">
+        <v>10852</v>
+      </c>
+      <c r="B3174" s="41" t="s">
+        <v>10853</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>10868</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3175" s="41" t="s">
+        <v>10854</v>
+      </c>
+      <c r="B3175" s="41" t="s">
+        <v>10855</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>10869</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3176" s="41" t="s">
+        <v>10856</v>
+      </c>
+      <c r="B3176" s="41" t="s">
+        <v>10857</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>10870</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3177" s="41" t="s">
+        <v>10858</v>
+      </c>
+      <c r="B3177" s="41" t="s">
+        <v>10859</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>10871</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3178" s="41" t="s">
+        <v>10860</v>
+      </c>
+      <c r="B3178" s="41" t="s">
+        <v>10861</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>10872</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3179" s="41" t="s">
+        <v>10862</v>
+      </c>
+      <c r="B3179" s="41" t="s">
+        <v>5116</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3180" s="41" t="s">
+        <v>10862</v>
+      </c>
+      <c r="B3180" s="41" t="s">
+        <v>10874</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>10873</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3181" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3181" s="41" t="s">
+        <v>10875</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>11065</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3182" s="41" t="s">
+        <v>10876</v>
+      </c>
+      <c r="B3182" s="41" t="s">
+        <v>10877</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>11066</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3183" s="41" t="s">
+        <v>10878</v>
+      </c>
+      <c r="B3183" s="41" t="s">
+        <v>10879</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>11067</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3184" s="41" t="s">
+        <v>10880</v>
+      </c>
+      <c r="B3184" s="41" t="s">
+        <v>10881</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>11068</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3185" s="41" t="s">
+        <v>10882</v>
+      </c>
+      <c r="B3185" s="41" t="s">
+        <v>10883</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>11069</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3186" s="41" t="s">
+        <v>10884</v>
+      </c>
+      <c r="B3186" s="41" t="s">
+        <v>10885</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>11070</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3187" s="41" t="s">
+        <v>10886</v>
+      </c>
+      <c r="B3187" s="41" t="s">
+        <v>10887</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>11071</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3188" s="41" t="s">
+        <v>10888</v>
+      </c>
+      <c r="B3188" s="41" t="s">
+        <v>10889</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>11072</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3189" s="41" t="s">
+        <v>10890</v>
+      </c>
+      <c r="B3189" s="41" t="s">
+        <v>10891</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>11073</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3190" s="41" t="s">
+        <v>4650</v>
+      </c>
+      <c r="B3190" s="41" t="s">
+        <v>10892</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>11074</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3191" s="41" t="s">
+        <v>10893</v>
+      </c>
+      <c r="B3191" s="41" t="s">
+        <v>10894</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>11075</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3192" s="41" t="s">
+        <v>10895</v>
+      </c>
+      <c r="B3192" s="41" t="s">
+        <v>10896</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>11076</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3193" s="41" t="s">
+        <v>10897</v>
+      </c>
+      <c r="B3193" s="41" t="s">
+        <v>10898</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>11077</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3194" s="41" t="s">
+        <v>10899</v>
+      </c>
+      <c r="B3194" s="41" t="s">
+        <v>10900</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>11078</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3195" s="41" t="s">
+        <v>10901</v>
+      </c>
+      <c r="B3195" s="41" t="s">
+        <v>10902</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>11079</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3196" s="41" t="s">
+        <v>10903</v>
+      </c>
+      <c r="B3196" s="41" t="s">
+        <v>10904</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>10904</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3197" s="41" t="s">
+        <v>10905</v>
+      </c>
+      <c r="B3197" s="41" t="s">
+        <v>10906</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>11080</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3198" s="41" t="s">
+        <v>10907</v>
+      </c>
+      <c r="B3198" s="41" t="s">
+        <v>10908</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>11081</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3199" s="41" t="s">
+        <v>10504</v>
+      </c>
+      <c r="B3199" s="41" t="s">
+        <v>10909</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>11082</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3200" s="41" t="s">
+        <v>4983</v>
+      </c>
+      <c r="B3200" s="41" t="s">
+        <v>10910</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>11083</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3201" s="41" t="s">
+        <v>10911</v>
+      </c>
+      <c r="B3201" s="41" t="s">
+        <v>10912</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>11084</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3202" s="41" t="s">
+        <v>10913</v>
+      </c>
+      <c r="B3202" s="41" t="s">
+        <v>10914</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>11085</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3203" s="41" t="s">
+        <v>6586</v>
+      </c>
+      <c r="B3203" s="41" t="s">
+        <v>10915</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>11086</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3204" s="41" t="s">
+        <v>10916</v>
+      </c>
+      <c r="B3204" s="41" t="s">
+        <v>10917</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>11087</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3205" s="41" t="s">
+        <v>10918</v>
+      </c>
+      <c r="B3205" s="41" t="s">
+        <v>10919</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>11088</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3206" s="41" t="s">
+        <v>10920</v>
+      </c>
+      <c r="B3206" s="41" t="s">
+        <v>10921</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>11089</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3207" s="41" t="s">
+        <v>10922</v>
+      </c>
+      <c r="B3207" s="41" t="s">
+        <v>10923</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>11090</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3208" s="41" t="s">
+        <v>10924</v>
+      </c>
+      <c r="B3208" s="41" t="s">
+        <v>10925</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>11091</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3209" s="41" t="s">
+        <v>10926</v>
+      </c>
+      <c r="B3209" s="41" t="s">
+        <v>10929</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>11092</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3210" s="41" t="s">
+        <v>10927</v>
+      </c>
+      <c r="B3210" s="41" t="s">
+        <v>10928</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>11093</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3211" s="41" t="s">
+        <v>10930</v>
+      </c>
+      <c r="B3211" s="41" t="s">
+        <v>10931</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>11094</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3212" s="41" t="s">
+        <v>10933</v>
+      </c>
+      <c r="B3212" s="41" t="s">
+        <v>10934</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>11095</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3213" s="41" t="s">
+        <v>10935</v>
+      </c>
+      <c r="B3213" s="41" t="s">
+        <v>10936</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>11096</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3214" s="41" t="s">
+        <v>10932</v>
+      </c>
+      <c r="B3214" s="41" t="s">
+        <v>10937</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>11097</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3215" s="41" t="s">
+        <v>10938</v>
+      </c>
+      <c r="B3215" s="41" t="s">
+        <v>10939</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>11098</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3216" s="41" t="s">
+        <v>10940</v>
+      </c>
+      <c r="B3216" s="41" t="s">
+        <v>10941</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>11099</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3217" s="41" t="s">
+        <v>10942</v>
+      </c>
+      <c r="B3217" s="41" t="s">
+        <v>10943</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="3218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3218" s="41" t="s">
+        <v>10944</v>
+      </c>
+      <c r="B3218" s="41" t="s">
+        <v>10945</v>
+      </c>
+      <c r="C3218" t="s">
+        <v>11101</v>
+      </c>
+    </row>
+    <row r="3219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3219" s="41" t="s">
+        <v>10946</v>
+      </c>
+      <c r="B3219" s="41" t="s">
+        <v>10947</v>
+      </c>
+      <c r="C3219" t="s">
+        <v>10947</v>
+      </c>
+    </row>
+    <row r="3220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3220" s="41" t="s">
+        <v>10948</v>
+      </c>
+      <c r="B3220" s="41" t="s">
+        <v>10949</v>
+      </c>
+      <c r="C3220" t="s">
+        <v>11102</v>
+      </c>
+    </row>
+    <row r="3221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3221" s="41" t="s">
+        <v>10950</v>
+      </c>
+      <c r="B3221" s="41" t="s">
+        <v>10951</v>
+      </c>
+      <c r="C3221" t="s">
+        <v>10951</v>
+      </c>
+      <c r="D3221" t="s">
+        <v>10952</v>
+      </c>
+      <c r="E3221" t="s">
+        <v>11103</v>
+      </c>
+      <c r="F3221" t="s">
+        <v>10953</v>
+      </c>
+      <c r="G3221" t="s">
+        <v>11104</v>
+      </c>
+    </row>
+    <row r="3222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3222" s="41" t="s">
+        <v>10954</v>
+      </c>
+      <c r="B3222" s="41" t="s">
+        <v>10955</v>
+      </c>
+      <c r="C3222" t="s">
+        <v>11105</v>
+      </c>
+    </row>
+    <row r="3223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3223" s="41" t="s">
+        <v>10956</v>
+      </c>
+      <c r="B3223" s="41" t="s">
+        <v>10957</v>
+      </c>
+      <c r="C3223" t="s">
+        <v>11106</v>
+      </c>
+    </row>
+    <row r="3224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3224" s="41" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B3224" s="41" t="s">
+        <v>10958</v>
+      </c>
+      <c r="C3224" t="s">
+        <v>11107</v>
+      </c>
+    </row>
+    <row r="3225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3225" s="41" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B3225" s="41" t="s">
+        <v>10959</v>
+      </c>
+      <c r="C3225" t="s">
+        <v>11108</v>
+      </c>
+    </row>
+    <row r="3226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3226" s="41" t="s">
+        <v>10960</v>
+      </c>
+      <c r="B3226" s="41" t="s">
+        <v>10961</v>
+      </c>
+      <c r="C3226" t="s">
+        <v>11109</v>
+      </c>
+    </row>
+    <row r="3227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3227" s="41" t="s">
+        <v>10962</v>
+      </c>
+      <c r="B3227" s="41" t="s">
+        <v>10963</v>
+      </c>
+      <c r="C3227" t="s">
+        <v>11110</v>
+      </c>
+    </row>
+    <row r="3228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3228" s="41" t="s">
+        <v>10964</v>
+      </c>
+      <c r="B3228" s="41" t="s">
+        <v>10965</v>
+      </c>
+      <c r="C3228" t="s">
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="3229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3229" s="41" t="s">
+        <v>10966</v>
+      </c>
+      <c r="B3229" s="41" t="s">
+        <v>10967</v>
+      </c>
+      <c r="C3229" t="s">
+        <v>11112</v>
+      </c>
+    </row>
+    <row r="3230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3230" s="41" t="s">
+        <v>10968</v>
+      </c>
+      <c r="B3230" s="41" t="s">
+        <v>10969</v>
+      </c>
+      <c r="C3230" t="s">
+        <v>11113</v>
+      </c>
+    </row>
+    <row r="3231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3231" s="41" t="s">
+        <v>10970</v>
+      </c>
+      <c r="B3231" s="41" t="s">
+        <v>10971</v>
+      </c>
+      <c r="C3231" t="s">
+        <v>11114</v>
+      </c>
+    </row>
+    <row r="3232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3232" s="41" t="s">
+        <v>10972</v>
+      </c>
+      <c r="B3232" s="41" t="s">
+        <v>10972</v>
+      </c>
+      <c r="C3232" t="s">
+        <v>10972</v>
+      </c>
+    </row>
+    <row r="3233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3233" s="41" t="s">
+        <v>10973</v>
+      </c>
+      <c r="B3233" s="41" t="s">
+        <v>10974</v>
+      </c>
+      <c r="C3233" t="s">
+        <v>11115</v>
+      </c>
+    </row>
+    <row r="3234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3234" s="41" t="s">
+        <v>7008</v>
+      </c>
+      <c r="B3234" s="41" t="s">
+        <v>10975</v>
+      </c>
+      <c r="C3234" t="s">
+        <v>11116</v>
+      </c>
+    </row>
+    <row r="3235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3235" s="41" t="s">
+        <v>10989</v>
+      </c>
+      <c r="B3235" s="41" t="s">
+        <v>10990</v>
+      </c>
+      <c r="C3235" t="s">
+        <v>11117</v>
+      </c>
+    </row>
+    <row r="3236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3236" s="41" t="s">
+        <v>10976</v>
+      </c>
+      <c r="B3236" s="41" t="s">
+        <v>10977</v>
+      </c>
+      <c r="C3236" t="s">
+        <v>11118</v>
+      </c>
+    </row>
+    <row r="3237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3237" s="41" t="s">
+        <v>10978</v>
+      </c>
+      <c r="B3237" s="41" t="s">
+        <v>10979</v>
+      </c>
+      <c r="C3237" t="s">
+        <v>11119</v>
+      </c>
+    </row>
+    <row r="3238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3238" s="41" t="s">
+        <v>10980</v>
+      </c>
+      <c r="B3238" s="41" t="s">
+        <v>10981</v>
+      </c>
+      <c r="C3238" t="s">
+        <v>11120</v>
+      </c>
+    </row>
+    <row r="3239" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3239" s="41" t="s">
+        <v>10982</v>
+      </c>
+      <c r="B3239" s="41" t="s">
+        <v>10983</v>
+      </c>
+      <c r="C3239" t="s">
+        <v>11121</v>
+      </c>
+    </row>
+    <row r="3240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3240" s="41" t="s">
+        <v>10984</v>
+      </c>
+      <c r="B3240" s="41" t="s">
+        <v>10985</v>
+      </c>
+      <c r="C3240" t="s">
+        <v>11122</v>
+      </c>
+    </row>
+    <row r="3241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3241" s="41" t="s">
+        <v>10986</v>
+      </c>
+      <c r="B3241" s="41" t="s">
+        <v>10987</v>
+      </c>
+      <c r="C3241" t="s">
+        <v>11123</v>
+      </c>
+    </row>
+    <row r="3242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3242" s="41" t="s">
+        <v>10988</v>
+      </c>
+      <c r="B3242" s="41" t="s">
+        <v>10991</v>
+      </c>
+      <c r="C3242" t="s">
+        <v>11124</v>
+      </c>
+    </row>
+    <row r="3243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3243" s="41" t="s">
+        <v>10992</v>
+      </c>
+      <c r="B3243" s="41" t="s">
+        <v>10993</v>
+      </c>
+      <c r="C3243" t="s">
+        <v>11125</v>
+      </c>
+    </row>
+    <row r="3244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3244" s="41" t="s">
+        <v>10994</v>
+      </c>
+      <c r="B3244" s="41" t="s">
+        <v>10995</v>
+      </c>
+      <c r="C3244" t="s">
+        <v>11126</v>
+      </c>
+    </row>
+    <row r="3245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3245" s="41" t="s">
+        <v>10996</v>
+      </c>
+      <c r="B3245" s="41" t="s">
+        <v>10997</v>
+      </c>
+      <c r="C3245" t="s">
+        <v>11127</v>
+      </c>
+    </row>
+    <row r="3246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3246" s="41" t="s">
+        <v>9755</v>
+      </c>
+      <c r="B3246" s="41" t="s">
+        <v>10998</v>
+      </c>
+      <c r="C3246" t="s">
+        <v>11128</v>
+      </c>
+    </row>
+    <row r="3247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3247" s="41" t="s">
+        <v>10999</v>
+      </c>
+      <c r="B3247" s="41" t="s">
+        <v>11000</v>
+      </c>
+      <c r="C3247" t="s">
+        <v>11129</v>
+      </c>
+    </row>
+    <row r="3248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3248" s="41" t="s">
+        <v>2740</v>
+      </c>
+      <c r="B3248" s="41" t="s">
+        <v>11001</v>
+      </c>
+      <c r="C3248" t="s">
+        <v>11130</v>
+      </c>
+    </row>
+    <row r="3249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3249" s="41" t="s">
+        <v>11002</v>
+      </c>
+      <c r="B3249" s="41" t="s">
+        <v>11003</v>
+      </c>
+      <c r="C3249" t="s">
+        <v>11131</v>
+      </c>
+    </row>
+    <row r="3250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3250" s="41" t="s">
+        <v>11004</v>
+      </c>
+      <c r="B3250" s="41" t="s">
+        <v>11005</v>
+      </c>
+      <c r="C3250" t="s">
+        <v>11132</v>
+      </c>
+    </row>
+    <row r="3251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3251" s="41" t="s">
+        <v>11006</v>
+      </c>
+      <c r="B3251" s="41" t="s">
+        <v>11007</v>
+      </c>
+      <c r="C3251" t="s">
+        <v>11133</v>
+      </c>
+    </row>
+    <row r="3252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3252" s="41" t="s">
+        <v>11008</v>
+      </c>
+      <c r="B3252" s="41" t="s">
+        <v>11009</v>
+      </c>
+      <c r="C3252" t="s">
+        <v>11134</v>
+      </c>
+    </row>
+    <row r="3253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3253" s="41" t="s">
+        <v>11010</v>
+      </c>
+      <c r="B3253" s="41" t="s">
+        <v>11011</v>
+      </c>
+      <c r="C3253" t="s">
+        <v>11135</v>
+      </c>
+    </row>
+    <row r="3254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3254" s="41" t="s">
+        <v>9641</v>
+      </c>
+      <c r="B3254" s="41" t="s">
+        <v>11012</v>
+      </c>
+      <c r="C3254" t="s">
+        <v>11136</v>
+      </c>
+    </row>
+    <row r="3255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3255" s="41" t="s">
+        <v>11013</v>
+      </c>
+      <c r="B3255" s="41" t="s">
+        <v>11014</v>
+      </c>
+      <c r="C3255" t="s">
+        <v>11137</v>
+      </c>
+    </row>
+    <row r="3256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3256" s="41" t="s">
+        <v>11015</v>
+      </c>
+      <c r="B3256" s="41" t="s">
+        <v>11016</v>
+      </c>
+      <c r="C3256" t="s">
+        <v>11138</v>
+      </c>
+    </row>
+    <row r="3257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3257" s="41" t="s">
+        <v>11017</v>
+      </c>
+      <c r="B3257" s="41" t="s">
+        <v>11018</v>
+      </c>
+      <c r="C3257" t="s">
+        <v>11139</v>
+      </c>
+    </row>
+    <row r="3258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3258" s="41" t="s">
+        <v>11019</v>
+      </c>
+      <c r="B3258" s="41" t="s">
+        <v>11020</v>
+      </c>
+      <c r="C3258" t="s">
+        <v>11140</v>
+      </c>
+    </row>
+    <row r="3259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3259" s="41" t="s">
+        <v>11021</v>
+      </c>
+      <c r="B3259" s="41" t="s">
+        <v>11022</v>
+      </c>
+      <c r="C3259" t="s">
+        <v>11141</v>
+      </c>
+    </row>
+    <row r="3260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3260" s="41" t="s">
+        <v>11023</v>
+      </c>
+      <c r="B3260" s="41" t="s">
+        <v>11024</v>
+      </c>
+      <c r="C3260" t="s">
+        <v>11024</v>
+      </c>
+    </row>
+    <row r="3261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3261" s="41" t="s">
+        <v>11025</v>
+      </c>
+      <c r="B3261" s="41" t="s">
+        <v>11026</v>
+      </c>
+      <c r="C3261" t="s">
+        <v>11142</v>
+      </c>
+    </row>
+    <row r="3262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3262" s="41" t="s">
+        <v>9387</v>
+      </c>
+      <c r="B3262" s="41" t="s">
+        <v>11027</v>
+      </c>
+      <c r="C3262" t="s">
+        <v>11143</v>
+      </c>
+      <c r="D3262" t="s">
+        <v>11028</v>
+      </c>
+      <c r="E3262" t="s">
+        <v>11144</v>
+      </c>
+    </row>
+    <row r="3263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3263" s="42" t="s">
+        <v>11029</v>
+      </c>
+      <c r="B3263" s="42" t="s">
+        <v>11030</v>
+      </c>
+      <c r="C3263" t="s">
+        <v>11145</v>
+      </c>
+    </row>
+    <row r="3264" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3264" s="42" t="s">
+        <v>11031</v>
+      </c>
+      <c r="B3264" s="42" t="s">
+        <v>11032</v>
+      </c>
+      <c r="C3264" t="s">
+        <v>11146</v>
+      </c>
+    </row>
+    <row r="3265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3265" s="42" t="s">
+        <v>6213</v>
+      </c>
+      <c r="B3265" s="42" t="s">
+        <v>11033</v>
+      </c>
+      <c r="C3265" t="s">
+        <v>11147</v>
+      </c>
+    </row>
+    <row r="3266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3266" s="42" t="s">
+        <v>11034</v>
+      </c>
+      <c r="B3266" s="42" t="s">
+        <v>11035</v>
+      </c>
+      <c r="C3266" t="s">
+        <v>11148</v>
+      </c>
+    </row>
+    <row r="3267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3267" s="42" t="s">
+        <v>11036</v>
+      </c>
+      <c r="B3267" s="42" t="s">
+        <v>11037</v>
+      </c>
+      <c r="C3267" t="s">
+        <v>11149</v>
+      </c>
+    </row>
+    <row r="3268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3268" s="42" t="s">
+        <v>11038</v>
+      </c>
+      <c r="B3268" s="42" t="s">
+        <v>11039</v>
+      </c>
+      <c r="C3268" t="s">
+        <v>11150</v>
+      </c>
+    </row>
+    <row r="3269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3269" s="42" t="s">
+        <v>4273</v>
+      </c>
+      <c r="B3269" s="42" t="s">
+        <v>11040</v>
+      </c>
+      <c r="C3269" t="s">
+        <v>11151</v>
+      </c>
+    </row>
+    <row r="3270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3270" s="42" t="s">
+        <v>11041</v>
+      </c>
+      <c r="B3270" s="42" t="s">
+        <v>11042</v>
+      </c>
+      <c r="C3270" t="s">
+        <v>11152</v>
+      </c>
+    </row>
+    <row r="3271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3271" s="42" t="s">
+        <v>11043</v>
+      </c>
+      <c r="B3271" s="42" t="s">
+        <v>11044</v>
+      </c>
+      <c r="C3271" t="s">
+        <v>11153</v>
+      </c>
+    </row>
+    <row r="3272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3272" s="42" t="s">
+        <v>11045</v>
+      </c>
+      <c r="B3272" s="42" t="s">
+        <v>11046</v>
+      </c>
+      <c r="C3272" t="s">
+        <v>11154</v>
+      </c>
+    </row>
+    <row r="3273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3273" s="42" t="s">
+        <v>11047</v>
+      </c>
+      <c r="B3273" s="42" t="s">
+        <v>11048</v>
+      </c>
+      <c r="C3273" t="s">
+        <v>11155</v>
+      </c>
+    </row>
+    <row r="3274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3274" s="42" t="s">
+        <v>11049</v>
+      </c>
+      <c r="B3274" s="42" t="s">
+        <v>11050</v>
+      </c>
+      <c r="C3274" t="s">
+        <v>11156</v>
+      </c>
+    </row>
+    <row r="3275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3275" s="42" t="s">
+        <v>11051</v>
+      </c>
+      <c r="B3275" s="42" t="s">
+        <v>11052</v>
+      </c>
+      <c r="C3275" t="s">
+        <v>11157</v>
+      </c>
+    </row>
+    <row r="3276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3276" s="42" t="s">
+        <v>11053</v>
+      </c>
+      <c r="B3276" s="42" t="s">
+        <v>11054</v>
+      </c>
+      <c r="C3276" t="s">
+        <v>11158</v>
+      </c>
+    </row>
+    <row r="3277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3277" s="42" t="s">
+        <v>11055</v>
+      </c>
+      <c r="B3277" s="42" t="s">
+        <v>11056</v>
+      </c>
+      <c r="C3277" t="s">
+        <v>11159</v>
+      </c>
+    </row>
+    <row r="3278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3278" s="42" t="s">
+        <v>11057</v>
+      </c>
+      <c r="B3278" s="42" t="s">
+        <v>11058</v>
+      </c>
+      <c r="C3278" t="s">
+        <v>11160</v>
+      </c>
+    </row>
+    <row r="3279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3279" s="42" t="s">
+        <v>11059</v>
+      </c>
+      <c r="B3279" s="42" t="s">
+        <v>11060</v>
+      </c>
+      <c r="C3279" t="s">
+        <v>11161</v>
+      </c>
+    </row>
+    <row r="3280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3280" s="42" t="s">
+        <v>11061</v>
+      </c>
+      <c r="B3280" s="42" t="s">
+        <v>11062</v>
+      </c>
+      <c r="C3280" t="s">
+        <v>11162</v>
+      </c>
+    </row>
+    <row r="3281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3281" s="42" t="s">
+        <v>11063</v>
+      </c>
+      <c r="B3281" s="42" t="s">
+        <v>11064</v>
+      </c>
+      <c r="C3281" t="s">
+        <v>11163</v>
+      </c>
+    </row>
+    <row r="3282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3282" s="43" t="s">
+        <v>11164</v>
+      </c>
+      <c r="B3282" s="43" t="s">
+        <v>11165</v>
+      </c>
+      <c r="C3282" t="s">
+        <v>11165</v>
+      </c>
+      <c r="D3282" t="s">
+        <v>11166</v>
+      </c>
+      <c r="E3282" t="s">
+        <v>11323</v>
+      </c>
+    </row>
+    <row r="3283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3283" s="43" t="s">
+        <v>11167</v>
+      </c>
+      <c r="B3283" s="43" t="s">
+        <v>11168</v>
+      </c>
+      <c r="C3283" t="s">
+        <v>11168</v>
+      </c>
+    </row>
+    <row r="3284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3284" s="43" t="s">
+        <v>5552</v>
+      </c>
+      <c r="B3284" s="43" t="s">
+        <v>11169</v>
+      </c>
+      <c r="C3284" t="s">
+        <v>11324</v>
+      </c>
+    </row>
+    <row r="3285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3285" s="43" t="s">
+        <v>11170</v>
+      </c>
+      <c r="B3285" s="43" t="s">
+        <v>11171</v>
+      </c>
+      <c r="C3285" t="s">
+        <v>11325</v>
+      </c>
+    </row>
+    <row r="3286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3286" s="43" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B3286" s="43" t="s">
+        <v>11172</v>
+      </c>
+      <c r="C3286" t="s">
+        <v>11326</v>
+      </c>
+    </row>
+    <row r="3287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3287" s="43" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B3287" s="43" t="s">
+        <v>11173</v>
+      </c>
+      <c r="C3287" t="s">
+        <v>11327</v>
+      </c>
+    </row>
+    <row r="3288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3288" s="43" t="s">
+        <v>11174</v>
+      </c>
+      <c r="B3288" s="43" t="s">
+        <v>11175</v>
+      </c>
+      <c r="C3288" t="s">
+        <v>11175</v>
+      </c>
+    </row>
+    <row r="3289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3289" s="43" t="s">
+        <v>8830</v>
+      </c>
+      <c r="B3289" s="43" t="s">
+        <v>8831</v>
+      </c>
+      <c r="C3289" t="s">
+        <v>8989</v>
+      </c>
+    </row>
+    <row r="3290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3290" s="43" t="s">
+        <v>11176</v>
+      </c>
+      <c r="B3290" s="43" t="s">
+        <v>11177</v>
+      </c>
+      <c r="C3290" t="s">
+        <v>11328</v>
+      </c>
+    </row>
+    <row r="3291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3291" s="43" t="s">
+        <v>11178</v>
+      </c>
+      <c r="B3291" s="43" t="s">
+        <v>11179</v>
+      </c>
+      <c r="C3291" t="s">
+        <v>11329</v>
+      </c>
+    </row>
+    <row r="3292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3292" s="43" t="s">
+        <v>11180</v>
+      </c>
+      <c r="B3292" s="43" t="s">
+        <v>11181</v>
+      </c>
+      <c r="C3292" t="s">
+        <v>11330</v>
+      </c>
+    </row>
+    <row r="3293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3293" s="43" t="s">
+        <v>11182</v>
+      </c>
+      <c r="B3293" s="43" t="s">
+        <v>11183</v>
+      </c>
+      <c r="C3293" t="s">
+        <v>11331</v>
+      </c>
+    </row>
+    <row r="3294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3294" s="43" t="s">
+        <v>11184</v>
+      </c>
+      <c r="B3294" s="43" t="s">
+        <v>11185</v>
+      </c>
+      <c r="C3294" t="s">
+        <v>11332</v>
+      </c>
+    </row>
+    <row r="3295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3295" s="43" t="s">
+        <v>9897</v>
+      </c>
+      <c r="B3295" s="43" t="s">
+        <v>11186</v>
+      </c>
+      <c r="C3295" t="s">
+        <v>11333</v>
+      </c>
+    </row>
+    <row r="3296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3296" s="43" t="s">
+        <v>11187</v>
+      </c>
+      <c r="B3296" s="43" t="s">
+        <v>11188</v>
+      </c>
+      <c r="C3296" t="s">
+        <v>11334</v>
+      </c>
+    </row>
+    <row r="3297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3297" s="43" t="s">
+        <v>11189</v>
+      </c>
+      <c r="B3297" s="43" t="s">
+        <v>4250</v>
+      </c>
+      <c r="C3297" t="s">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="3298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3298" s="43" t="s">
+        <v>11190</v>
+      </c>
+      <c r="B3298" s="43" t="s">
+        <v>11191</v>
+      </c>
+      <c r="C3298" t="s">
+        <v>11335</v>
+      </c>
+    </row>
+    <row r="3299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3299" s="43" t="s">
+        <v>11192</v>
+      </c>
+      <c r="B3299" s="43" t="s">
+        <v>11193</v>
+      </c>
+      <c r="C3299" t="s">
+        <v>11336</v>
+      </c>
+    </row>
+    <row r="3300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3300" s="43" t="s">
+        <v>11194</v>
+      </c>
+      <c r="B3300" s="43" t="s">
+        <v>11195</v>
+      </c>
+      <c r="C3300" t="s">
+        <v>11337</v>
+      </c>
+    </row>
+    <row r="3301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3301" s="43" t="s">
+        <v>11196</v>
+      </c>
+      <c r="B3301" s="43" t="s">
+        <v>11197</v>
+      </c>
+      <c r="C3301" t="s">
+        <v>11338</v>
+      </c>
+    </row>
+    <row r="3302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3302" s="43" t="s">
+        <v>11196</v>
+      </c>
+      <c r="B3302" s="43" t="s">
+        <v>11198</v>
+      </c>
+      <c r="C3302" t="s">
+        <v>11339</v>
+      </c>
+    </row>
+    <row r="3303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3303" s="43" t="s">
+        <v>9477</v>
+      </c>
+      <c r="B3303" s="43" t="s">
+        <v>11199</v>
+      </c>
+      <c r="C3303" t="s">
+        <v>11340</v>
+      </c>
+    </row>
+    <row r="3304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3304" s="43" t="s">
+        <v>9477</v>
+      </c>
+      <c r="B3304" s="43" t="s">
+        <v>11200</v>
+      </c>
+      <c r="C3304" t="s">
+        <v>11341</v>
+      </c>
+    </row>
+    <row r="3305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3305" s="43" t="s">
+        <v>11201</v>
+      </c>
+      <c r="B3305" s="43" t="s">
+        <v>11202</v>
+      </c>
+      <c r="C3305" t="s">
+        <v>11342</v>
+      </c>
+    </row>
+    <row r="3306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3306" s="43" t="s">
+        <v>11203</v>
+      </c>
+      <c r="B3306" s="43" t="s">
+        <v>11204</v>
+      </c>
+      <c r="C3306" t="s">
+        <v>11343</v>
+      </c>
+    </row>
+    <row r="3307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3307" s="43" t="s">
+        <v>11205</v>
+      </c>
+      <c r="B3307" s="43" t="s">
+        <v>11206</v>
+      </c>
+      <c r="C3307" t="s">
+        <v>11344</v>
+      </c>
+    </row>
+    <row r="3308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3308" s="43" t="s">
+        <v>11207</v>
+      </c>
+      <c r="B3308" s="43" t="s">
+        <v>11208</v>
+      </c>
+      <c r="C3308" t="s">
+        <v>11345</v>
+      </c>
+    </row>
+    <row r="3309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3309" s="43" t="s">
+        <v>11209</v>
+      </c>
+      <c r="B3309" s="43" t="s">
+        <v>11210</v>
+      </c>
+      <c r="C3309" t="s">
+        <v>11346</v>
+      </c>
+    </row>
+    <row r="3310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3310" s="43" t="s">
+        <v>11211</v>
+      </c>
+      <c r="B3310" s="43" t="s">
+        <v>11212</v>
+      </c>
+      <c r="C3310" t="s">
+        <v>11347</v>
+      </c>
+    </row>
+    <row r="3311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3311" s="43" t="s">
+        <v>7925</v>
+      </c>
+      <c r="B3311" s="43" t="s">
+        <v>11213</v>
+      </c>
+      <c r="C3311" t="s">
+        <v>11348</v>
+      </c>
+    </row>
+    <row r="3312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3312" s="43" t="s">
+        <v>11214</v>
+      </c>
+      <c r="B3312" s="43" t="s">
+        <v>11215</v>
+      </c>
+      <c r="C3312" t="s">
+        <v>11349</v>
+      </c>
+    </row>
+    <row r="3313" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3313" s="43" t="s">
+        <v>11216</v>
+      </c>
+      <c r="B3313" s="43" t="s">
+        <v>11217</v>
+      </c>
+      <c r="C3313" t="s">
+        <v>11350</v>
+      </c>
+    </row>
+    <row r="3314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3314" s="43" t="s">
+        <v>11218</v>
+      </c>
+      <c r="B3314" s="43" t="s">
+        <v>11219</v>
+      </c>
+      <c r="C3314" t="s">
+        <v>11351</v>
+      </c>
+    </row>
+    <row r="3315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3315" s="43" t="s">
+        <v>11220</v>
+      </c>
+      <c r="B3315" s="43" t="s">
+        <v>11221</v>
+      </c>
+      <c r="C3315" t="s">
+        <v>11352</v>
+      </c>
+    </row>
+    <row r="3316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3316" s="43" t="s">
+        <v>11222</v>
+      </c>
+      <c r="B3316" s="43" t="s">
+        <v>11223</v>
+      </c>
+      <c r="C3316" t="s">
+        <v>11353</v>
+      </c>
+    </row>
+    <row r="3317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3317" s="43" t="s">
+        <v>11224</v>
+      </c>
+      <c r="B3317" s="43" t="s">
+        <v>11225</v>
+      </c>
+      <c r="C3317" t="s">
+        <v>11354</v>
+      </c>
+    </row>
+    <row r="3318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3318" s="43" t="s">
+        <v>11226</v>
+      </c>
+      <c r="B3318" s="43" t="s">
+        <v>11227</v>
+      </c>
+      <c r="C3318" t="s">
+        <v>11355</v>
+      </c>
+    </row>
+    <row r="3319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3319" s="43" t="s">
+        <v>11228</v>
+      </c>
+      <c r="B3319" s="43" t="s">
+        <v>11229</v>
+      </c>
+      <c r="C3319" t="s">
+        <v>11356</v>
+      </c>
+    </row>
+    <row r="3320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3320" s="43" t="s">
+        <v>11230</v>
+      </c>
+      <c r="B3320" s="43" t="s">
+        <v>11231</v>
+      </c>
+      <c r="C3320" t="s">
+        <v>11357</v>
+      </c>
+    </row>
+    <row r="3321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3321" s="43" t="s">
+        <v>11232</v>
+      </c>
+      <c r="B3321" s="43" t="s">
+        <v>11233</v>
+      </c>
+      <c r="C3321" t="s">
+        <v>11358</v>
+      </c>
+    </row>
+    <row r="3322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3322" s="43" t="s">
+        <v>11234</v>
+      </c>
+      <c r="B3322" s="43" t="s">
+        <v>11235</v>
+      </c>
+      <c r="C3322" t="s">
+        <v>11359</v>
+      </c>
+    </row>
+    <row r="3323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3323" s="43" t="s">
+        <v>11236</v>
+      </c>
+      <c r="B3323" s="43" t="s">
+        <v>11237</v>
+      </c>
+      <c r="C3323" t="s">
+        <v>11360</v>
+      </c>
+    </row>
+    <row r="3324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3324" s="43" t="s">
+        <v>11238</v>
+      </c>
+      <c r="B3324" s="43" t="s">
+        <v>11239</v>
+      </c>
+      <c r="C3324" t="s">
+        <v>11361</v>
+      </c>
+    </row>
+    <row r="3325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3325" s="43" t="s">
+        <v>8501</v>
+      </c>
+      <c r="B3325" s="43" t="s">
+        <v>11240</v>
+      </c>
+      <c r="C3325" t="s">
+        <v>11362</v>
+      </c>
+    </row>
+    <row r="3326" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3326" s="43" t="s">
+        <v>11241</v>
+      </c>
+      <c r="B3326" s="43" t="s">
+        <v>11242</v>
+      </c>
+      <c r="C3326" s="44" t="s">
+        <v>11363</v>
+      </c>
+    </row>
+    <row r="3327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3327" s="43" t="s">
+        <v>11243</v>
+      </c>
+      <c r="B3327" s="43" t="s">
+        <v>11244</v>
+      </c>
+      <c r="C3327" t="s">
+        <v>11364</v>
+      </c>
+    </row>
+    <row r="3328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3328" s="43" t="s">
+        <v>11245</v>
+      </c>
+      <c r="B3328" s="43" t="s">
+        <v>11246</v>
+      </c>
+      <c r="C3328" t="s">
+        <v>11365</v>
+      </c>
+    </row>
+    <row r="3329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3329" s="43" t="s">
+        <v>9800</v>
+      </c>
+      <c r="B3329" s="43" t="s">
+        <v>11247</v>
+      </c>
+      <c r="C3329" t="s">
+        <v>11366</v>
+      </c>
+    </row>
+    <row r="3330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3330" s="43" t="s">
+        <v>11248</v>
+      </c>
+      <c r="B3330" s="43" t="s">
+        <v>11249</v>
+      </c>
+      <c r="C3330" t="s">
+        <v>11367</v>
+      </c>
+    </row>
+    <row r="3331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3331" s="43" t="s">
+        <v>11250</v>
+      </c>
+      <c r="B3331" s="43" t="s">
+        <v>11251</v>
+      </c>
+      <c r="C3331" t="s">
+        <v>11368</v>
+      </c>
+    </row>
+    <row r="3332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3332" s="43" t="s">
+        <v>11252</v>
+      </c>
+      <c r="B3332" s="43" t="s">
+        <v>11253</v>
+      </c>
+      <c r="C3332" t="s">
+        <v>11369</v>
+      </c>
+    </row>
+    <row r="3333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3333" s="43" t="s">
+        <v>11254</v>
+      </c>
+      <c r="B3333" s="43" t="s">
+        <v>11255</v>
+      </c>
+      <c r="C3333" t="s">
+        <v>11370</v>
+      </c>
+    </row>
+    <row r="3334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3334" s="43" t="s">
+        <v>11256</v>
+      </c>
+      <c r="B3334" s="43" t="s">
+        <v>11257</v>
+      </c>
+      <c r="C3334" t="s">
+        <v>11371</v>
+      </c>
+    </row>
+    <row r="3335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3335" s="43" t="s">
+        <v>11258</v>
+      </c>
+      <c r="B3335" s="43" t="s">
+        <v>11259</v>
+      </c>
+      <c r="C3335" t="s">
+        <v>11372</v>
+      </c>
+    </row>
+    <row r="3336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3336" s="43" t="s">
+        <v>11260</v>
+      </c>
+      <c r="B3336" s="43" t="s">
+        <v>11261</v>
+      </c>
+      <c r="C3336" t="s">
+        <v>11373</v>
+      </c>
+    </row>
+    <row r="3337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3337" s="43" t="s">
+        <v>11262</v>
+      </c>
+      <c r="B3337" s="43" t="s">
+        <v>11263</v>
+      </c>
+      <c r="C3337" t="s">
+        <v>11374</v>
+      </c>
+    </row>
+    <row r="3338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3338" s="43" t="s">
+        <v>11264</v>
+      </c>
+      <c r="B3338" s="43" t="s">
+        <v>11265</v>
+      </c>
+      <c r="C3338" t="s">
+        <v>11375</v>
+      </c>
+    </row>
+    <row r="3339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3339" s="43" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B3339" s="43" t="s">
+        <v>11266</v>
+      </c>
+      <c r="C3339" t="s">
+        <v>11376</v>
+      </c>
+    </row>
+    <row r="3340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3340" s="43" t="s">
+        <v>11267</v>
+      </c>
+      <c r="B3340" s="43" t="s">
+        <v>11268</v>
+      </c>
+      <c r="C3340" t="s">
+        <v>11377</v>
+      </c>
+    </row>
+    <row r="3341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3341" s="43" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B3341" s="43" t="s">
+        <v>11269</v>
+      </c>
+      <c r="C3341" t="s">
+        <v>11378</v>
+      </c>
+    </row>
+    <row r="3342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3342" s="43" t="s">
+        <v>11270</v>
+      </c>
+      <c r="B3342" s="43" t="s">
+        <v>11271</v>
+      </c>
+      <c r="C3342" t="s">
+        <v>11379</v>
+      </c>
+    </row>
+    <row r="3343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3343" s="43" t="s">
+        <v>11272</v>
+      </c>
+      <c r="B3343" s="43" t="s">
+        <v>11273</v>
+      </c>
+      <c r="C3343" t="s">
+        <v>11380</v>
+      </c>
+    </row>
+    <row r="3344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3344" s="43" t="s">
+        <v>11274</v>
+      </c>
+      <c r="B3344" s="43" t="s">
+        <v>11275</v>
+      </c>
+      <c r="C3344" t="s">
+        <v>11381</v>
+      </c>
+    </row>
+    <row r="3345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3345" s="43" t="s">
+        <v>11276</v>
+      </c>
+      <c r="B3345" s="43" t="s">
+        <v>11277</v>
+      </c>
+      <c r="C3345" t="s">
+        <v>11382</v>
+      </c>
+    </row>
+    <row r="3346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3346" s="43" t="s">
+        <v>11278</v>
+      </c>
+      <c r="B3346" s="43" t="s">
+        <v>11279</v>
+      </c>
+      <c r="C3346" t="s">
+        <v>11383</v>
+      </c>
+    </row>
+    <row r="3347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3347" s="43" t="s">
+        <v>11280</v>
+      </c>
+      <c r="B3347" s="43" t="s">
+        <v>11281</v>
+      </c>
+      <c r="C3347" t="s">
+        <v>11384</v>
+      </c>
+    </row>
+    <row r="3348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3348" s="43" t="s">
+        <v>11282</v>
+      </c>
+      <c r="B3348" s="43" t="s">
+        <v>11283</v>
+      </c>
+      <c r="C3348" t="s">
+        <v>11385</v>
+      </c>
+    </row>
+    <row r="3349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3349" s="43" t="s">
+        <v>11284</v>
+      </c>
+      <c r="B3349" s="43" t="s">
+        <v>11285</v>
+      </c>
+      <c r="C3349" t="s">
+        <v>11386</v>
+      </c>
+    </row>
+    <row r="3350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3350" s="43" t="s">
+        <v>11286</v>
+      </c>
+      <c r="B3350" s="43" t="s">
+        <v>11287</v>
+      </c>
+      <c r="C3350" t="s">
+        <v>11387</v>
+      </c>
+    </row>
+    <row r="3351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3351" s="43" t="s">
+        <v>11288</v>
+      </c>
+      <c r="B3351" s="43" t="s">
+        <v>11289</v>
+      </c>
+      <c r="C3351" t="s">
+        <v>11388</v>
+      </c>
+    </row>
+    <row r="3352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3352" s="43" t="s">
+        <v>11290</v>
+      </c>
+      <c r="B3352" s="43" t="s">
+        <v>11291</v>
+      </c>
+      <c r="C3352" t="s">
+        <v>11389</v>
+      </c>
+    </row>
+    <row r="3353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3353" s="43" t="s">
+        <v>11292</v>
+      </c>
+      <c r="B3353" s="43" t="s">
+        <v>11293</v>
+      </c>
+      <c r="C3353" t="s">
+        <v>11390</v>
+      </c>
+    </row>
+    <row r="3354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3354" s="43" t="s">
+        <v>11294</v>
+      </c>
+      <c r="B3354" s="43" t="s">
+        <v>11295</v>
+      </c>
+      <c r="C3354" t="s">
+        <v>11391</v>
+      </c>
+    </row>
+    <row r="3355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3355" s="43" t="s">
+        <v>11296</v>
+      </c>
+      <c r="B3355" s="43" t="s">
+        <v>11297</v>
+      </c>
+      <c r="C3355" t="s">
+        <v>11392</v>
+      </c>
+    </row>
+    <row r="3356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3356" s="43" t="s">
+        <v>11298</v>
+      </c>
+      <c r="B3356" s="43" t="s">
+        <v>11299</v>
+      </c>
+      <c r="C3356" t="s">
+        <v>11393</v>
+      </c>
+    </row>
+    <row r="3357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3357" s="43" t="s">
+        <v>11300</v>
+      </c>
+      <c r="B3357" s="43" t="s">
+        <v>11301</v>
+      </c>
+      <c r="C3357" t="s">
+        <v>11394</v>
+      </c>
+    </row>
+    <row r="3358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3358" s="43" t="s">
+        <v>11302</v>
+      </c>
+      <c r="B3358" s="43" t="s">
+        <v>11303</v>
+      </c>
+      <c r="C3358" t="s">
+        <v>11395</v>
+      </c>
+    </row>
+    <row r="3359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3359" s="43" t="s">
+        <v>11304</v>
+      </c>
+      <c r="B3359" s="43" t="s">
+        <v>11305</v>
+      </c>
+      <c r="C3359" t="s">
+        <v>11396</v>
+      </c>
+    </row>
+    <row r="3360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3360" s="43" t="s">
+        <v>11304</v>
+      </c>
+      <c r="B3360" s="43" t="s">
+        <v>11306</v>
+      </c>
+      <c r="C3360" t="s">
+        <v>11397</v>
+      </c>
+    </row>
+    <row r="3361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3361" s="43" t="s">
+        <v>11307</v>
+      </c>
+      <c r="B3361" s="43" t="s">
+        <v>11308</v>
+      </c>
+      <c r="C3361" t="s">
+        <v>11398</v>
+      </c>
+    </row>
+    <row r="3362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3362" s="43" t="s">
+        <v>11309</v>
+      </c>
+      <c r="B3362" s="43" t="s">
+        <v>11310</v>
+      </c>
+      <c r="C3362" t="s">
+        <v>11399</v>
+      </c>
+    </row>
+    <row r="3363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3363" s="43" t="s">
+        <v>11311</v>
+      </c>
+      <c r="B3363" s="43" t="s">
+        <v>11312</v>
+      </c>
+      <c r="C3363" t="s">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="3364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3364" s="43" t="s">
+        <v>11313</v>
+      </c>
+      <c r="B3364" s="43" t="s">
+        <v>11314</v>
+      </c>
+      <c r="C3364" t="s">
+        <v>11401</v>
+      </c>
+    </row>
+    <row r="3365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3365" s="43" t="s">
+        <v>11315</v>
+      </c>
+      <c r="B3365" s="43" t="s">
+        <v>11316</v>
+      </c>
+      <c r="C3365" t="s">
+        <v>11402</v>
+      </c>
+    </row>
+    <row r="3366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3366" s="43" t="s">
+        <v>11317</v>
+      </c>
+      <c r="B3366" s="43" t="s">
+        <v>11318</v>
+      </c>
+      <c r="C3366" t="s">
+        <v>11404</v>
+      </c>
+    </row>
+    <row r="3367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3367" s="43" t="s">
+        <v>11319</v>
+      </c>
+      <c r="B3367" s="43" t="s">
+        <v>11320</v>
+      </c>
+      <c r="C3367" t="s">
+        <v>11403</v>
+      </c>
+    </row>
+    <row r="3368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3368" s="43" t="s">
+        <v>11322</v>
+      </c>
+      <c r="B3368" s="43" t="s">
+        <v>11321</v>
+      </c>
+      <c r="C3368" t="s">
+        <v>11405</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I3165" xr:uid="{4C747385-BEA8-4432-A60B-DFBD791AE7EF}"/>
+  <autoFilter ref="A1:I3242" xr:uid="{4C747385-BEA8-4432-A60B-DFBD791AE7EF}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -75264,7 +79192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE47CB3-5607-4EF6-8FDF-EF8B883E387F}">
   <dimension ref="A1:S262"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="D19" workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
@@ -75277,63 +79205,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43"/>
-      <c r="B1" s="45" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="49" t="s">
         <v>1550</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="46" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="45" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="53"/>
       <c r="S1" t="s">
         <v>3674</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="50" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="54" t="s">
         <v>1539</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="37"/>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="54" t="s">
         <v>4527</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="51" t="s">
+      <c r="F2" s="54"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="55" t="s">
         <v>1549</v>
       </c>
-      <c r="I2" s="52"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="37"/>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="57" t="s">
         <v>2704</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
       <c r="P2" s="39"/>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="59" t="s">
         <v>1063</v>
       </c>
-      <c r="R2" s="56"/>
+      <c r="R2" s="60"/>
       <c r="S2" t="s">
         <v>3714</v>
       </c>
@@ -75742,62 +79670,62 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="45" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="49" t="s">
         <v>1550</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="46" t="s">
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="45" t="s">
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="53"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="50" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="54" t="s">
         <v>3440</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="37"/>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="54" t="s">
         <v>4504</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="51" t="s">
+      <c r="F12" s="54"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="55" t="s">
         <v>4538</v>
       </c>
-      <c r="I12" s="52"/>
+      <c r="I12" s="56"/>
       <c r="J12" s="37"/>
-      <c r="K12" s="53" t="s">
+      <c r="K12" s="57" t="s">
         <v>3441</v>
       </c>
-      <c r="L12" s="54"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="55" t="s">
+      <c r="L12" s="58"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="59" t="s">
         <v>4550</v>
       </c>
-      <c r="O12" s="55"/>
+      <c r="O12" s="59"/>
       <c r="P12" s="39"/>
-      <c r="Q12" s="55" t="s">
+      <c r="Q12" s="59" t="s">
         <v>4559</v>
       </c>
-      <c r="R12" s="56"/>
+      <c r="R12" s="60"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -76215,60 +80143,60 @@
       <c r="R20" s="7"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="45" t="s">
+      <c r="A21" s="47"/>
+      <c r="B21" s="49" t="s">
         <v>1550</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="46" t="s">
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="45" t="s">
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="53"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="50" t="s">
+      <c r="A22" s="48"/>
+      <c r="B22" s="54" t="s">
         <v>3442</v>
       </c>
-      <c r="C22" s="50"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="54" t="s">
         <v>4567</v>
       </c>
-      <c r="F22" s="50"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="51" t="s">
+      <c r="F22" s="54"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="55" t="s">
         <v>1043</v>
       </c>
-      <c r="I22" s="52"/>
+      <c r="I22" s="56"/>
       <c r="J22" s="37"/>
-      <c r="K22" s="53" t="s">
+      <c r="K22" s="57" t="s">
         <v>4516</v>
       </c>
-      <c r="L22" s="54"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="55" t="s">
+      <c r="L22" s="58"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="59" t="s">
         <v>4593</v>
       </c>
-      <c r="O22" s="55"/>
+      <c r="O22" s="59"/>
       <c r="P22" s="39"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
@@ -76675,54 +80603,54 @@
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
-      <c r="B31" s="45" t="s">
+      <c r="A31" s="47"/>
+      <c r="B31" s="49" t="s">
         <v>3664</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="46" t="s">
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="45" t="s">
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="53"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="50" t="s">
+      <c r="A32" s="48"/>
+      <c r="B32" s="54" t="s">
         <v>3665</v>
       </c>
-      <c r="C32" s="50"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="37"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="52"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="56"/>
       <c r="J32" s="37"/>
-      <c r="K32" s="53" t="s">
+      <c r="K32" s="57" t="s">
         <v>259</v>
       </c>
-      <c r="L32" s="54"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
       <c r="P32" s="39"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="56"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="60"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
@@ -77029,52 +80957,52 @@
       <c r="R40" s="7"/>
     </row>
     <row r="41" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
-      <c r="B41" s="45" t="s">
+      <c r="A41" s="47"/>
+      <c r="B41" s="49" t="s">
         <v>1550</v>
       </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="46" t="s">
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="45" t="s">
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="O41" s="45"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="49"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="53"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" s="50" t="s">
+      <c r="A42" s="48"/>
+      <c r="B42" s="54" t="s">
         <v>1370</v>
       </c>
-      <c r="C42" s="50"/>
+      <c r="C42" s="54"/>
       <c r="D42" s="37"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="52"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="56"/>
       <c r="J42" s="37"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="55"/>
-      <c r="O42" s="55"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="59"/>
       <c r="P42" s="39"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="56"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="60"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
@@ -77353,44 +81281,44 @@
       <c r="R50" s="7"/>
     </row>
     <row r="51" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="48"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="45"/>
-      <c r="O51" s="45"/>
-      <c r="P51" s="45"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="49"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="49"/>
+      <c r="O51" s="49"/>
+      <c r="P51" s="49"/>
+      <c r="Q51" s="49"/>
+      <c r="R51" s="53"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="37"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="52"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="56"/>
       <c r="J52" s="37"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="44"/>
-      <c r="N52" s="55"/>
-      <c r="O52" s="55"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
       <c r="P52" s="39"/>
-      <c r="Q52" s="55"/>
-      <c r="R52" s="56"/>
+      <c r="Q52" s="59"/>
+      <c r="R52" s="60"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
@@ -77553,44 +81481,44 @@
       <c r="R60" s="7"/>
     </row>
     <row r="61" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="48"/>
-      <c r="M61" s="57"/>
-      <c r="N61" s="45"/>
-      <c r="O61" s="45"/>
-      <c r="P61" s="45"/>
-      <c r="Q61" s="45"/>
-      <c r="R61" s="49"/>
+      <c r="A61" s="61"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="49"/>
+      <c r="Q61" s="49"/>
+      <c r="R61" s="53"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="58"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
+      <c r="A62" s="62"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="54"/>
       <c r="D62" s="37"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="51"/>
-      <c r="I62" s="52"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="56"/>
       <c r="J62" s="37"/>
-      <c r="K62" s="53"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="58"/>
-      <c r="N62" s="55"/>
-      <c r="O62" s="55"/>
+      <c r="K62" s="57"/>
+      <c r="L62" s="58"/>
+      <c r="M62" s="62"/>
+      <c r="N62" s="59"/>
+      <c r="O62" s="59"/>
       <c r="P62" s="39"/>
-      <c r="Q62" s="55"/>
-      <c r="R62" s="56"/>
+      <c r="Q62" s="59"/>
+      <c r="R62" s="60"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
@@ -77773,58 +81701,58 @@
       <c r="R71" s="15"/>
     </row>
     <row r="72" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="43"/>
-      <c r="B72" s="45" t="s">
+      <c r="A72" s="47"/>
+      <c r="B72" s="49" t="s">
         <v>1550</v>
       </c>
-      <c r="C72" s="45"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="45"/>
-      <c r="F72" s="45"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="46" t="s">
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="I72" s="47"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="47"/>
-      <c r="L72" s="48"/>
-      <c r="M72" s="43"/>
-      <c r="N72" s="45" t="s">
+      <c r="I72" s="51"/>
+      <c r="J72" s="51"/>
+      <c r="K72" s="51"/>
+      <c r="L72" s="52"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="O72" s="45"/>
-      <c r="P72" s="45"/>
-      <c r="Q72" s="45"/>
-      <c r="R72" s="49"/>
+      <c r="O72" s="49"/>
+      <c r="P72" s="49"/>
+      <c r="Q72" s="49"/>
+      <c r="R72" s="53"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="44"/>
-      <c r="B73" s="50" t="s">
+      <c r="A73" s="48"/>
+      <c r="B73" s="54" t="s">
         <v>1539</v>
       </c>
-      <c r="C73" s="50"/>
+      <c r="C73" s="54"/>
       <c r="D73" s="37"/>
-      <c r="E73" s="50" t="s">
+      <c r="E73" s="54" t="s">
         <v>4527</v>
       </c>
-      <c r="F73" s="50"/>
-      <c r="G73" s="44"/>
-      <c r="H73" s="51" t="s">
+      <c r="F73" s="54"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="55" t="s">
         <v>1549</v>
       </c>
-      <c r="I73" s="52"/>
+      <c r="I73" s="56"/>
       <c r="J73" s="37"/>
-      <c r="K73" s="53" t="s">
+      <c r="K73" s="57" t="s">
         <v>2704</v>
       </c>
-      <c r="L73" s="54"/>
-      <c r="M73" s="44"/>
-      <c r="N73" s="55"/>
-      <c r="O73" s="55"/>
+      <c r="L73" s="58"/>
+      <c r="M73" s="48"/>
+      <c r="N73" s="59"/>
+      <c r="O73" s="59"/>
       <c r="P73" s="39"/>
-      <c r="Q73" s="55"/>
-      <c r="R73" s="56"/>
+      <c r="Q73" s="59"/>
+      <c r="R73" s="60"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
@@ -78195,62 +82123,62 @@
       <c r="R81" s="7"/>
     </row>
     <row r="82" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="43"/>
-      <c r="B82" s="45" t="s">
+      <c r="A82" s="47"/>
+      <c r="B82" s="49" t="s">
         <v>1550</v>
       </c>
-      <c r="C82" s="45"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="45"/>
-      <c r="F82" s="45"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="46" t="s">
+      <c r="C82" s="49"/>
+      <c r="D82" s="49"/>
+      <c r="E82" s="49"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="47"/>
+      <c r="H82" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="I82" s="47"/>
-      <c r="J82" s="47"/>
-      <c r="K82" s="47"/>
-      <c r="L82" s="48"/>
-      <c r="M82" s="43"/>
-      <c r="N82" s="45" t="s">
+      <c r="I82" s="51"/>
+      <c r="J82" s="51"/>
+      <c r="K82" s="51"/>
+      <c r="L82" s="52"/>
+      <c r="M82" s="47"/>
+      <c r="N82" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="O82" s="45"/>
-      <c r="P82" s="45"/>
-      <c r="Q82" s="45"/>
-      <c r="R82" s="49"/>
+      <c r="O82" s="49"/>
+      <c r="P82" s="49"/>
+      <c r="Q82" s="49"/>
+      <c r="R82" s="53"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="44"/>
-      <c r="B83" s="50" t="s">
+      <c r="A83" s="48"/>
+      <c r="B83" s="54" t="s">
         <v>3440</v>
       </c>
-      <c r="C83" s="50"/>
+      <c r="C83" s="54"/>
       <c r="D83" s="37"/>
-      <c r="E83" s="50" t="s">
+      <c r="E83" s="54" t="s">
         <v>4504</v>
       </c>
-      <c r="F83" s="50"/>
-      <c r="G83" s="44"/>
-      <c r="H83" s="51" t="s">
+      <c r="F83" s="54"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="55" t="s">
         <v>4538</v>
       </c>
-      <c r="I83" s="52"/>
+      <c r="I83" s="56"/>
       <c r="J83" s="37"/>
-      <c r="K83" s="53" t="s">
+      <c r="K83" s="57" t="s">
         <v>3441</v>
       </c>
-      <c r="L83" s="54"/>
-      <c r="M83" s="44"/>
-      <c r="N83" s="55" t="s">
+      <c r="L83" s="58"/>
+      <c r="M83" s="48"/>
+      <c r="N83" s="59" t="s">
         <v>4550</v>
       </c>
-      <c r="O83" s="55"/>
+      <c r="O83" s="59"/>
       <c r="P83" s="39"/>
-      <c r="Q83" s="55" t="s">
+      <c r="Q83" s="59" t="s">
         <v>4559</v>
       </c>
-      <c r="R83" s="56"/>
+      <c r="R83" s="60"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
@@ -78665,62 +82593,62 @@
       <c r="R91" s="7"/>
     </row>
     <row r="92" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="43"/>
-      <c r="B92" s="45" t="s">
+      <c r="A92" s="47"/>
+      <c r="B92" s="49" t="s">
         <v>1550</v>
       </c>
-      <c r="C92" s="45"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="45"/>
-      <c r="F92" s="45"/>
-      <c r="G92" s="43"/>
-      <c r="H92" s="46" t="s">
+      <c r="C92" s="49"/>
+      <c r="D92" s="49"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="I92" s="47"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="47"/>
-      <c r="L92" s="48"/>
-      <c r="M92" s="43"/>
-      <c r="N92" s="45" t="s">
+      <c r="I92" s="51"/>
+      <c r="J92" s="51"/>
+      <c r="K92" s="51"/>
+      <c r="L92" s="52"/>
+      <c r="M92" s="47"/>
+      <c r="N92" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="O92" s="45"/>
-      <c r="P92" s="45"/>
-      <c r="Q92" s="45"/>
-      <c r="R92" s="49"/>
+      <c r="O92" s="49"/>
+      <c r="P92" s="49"/>
+      <c r="Q92" s="49"/>
+      <c r="R92" s="53"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="44"/>
-      <c r="B93" s="50" t="s">
+      <c r="A93" s="48"/>
+      <c r="B93" s="54" t="s">
         <v>3442</v>
       </c>
-      <c r="C93" s="50"/>
+      <c r="C93" s="54"/>
       <c r="D93" s="37"/>
-      <c r="E93" s="50" t="s">
+      <c r="E93" s="54" t="s">
         <v>4567</v>
       </c>
-      <c r="F93" s="50"/>
-      <c r="G93" s="44"/>
-      <c r="H93" s="51" t="s">
+      <c r="F93" s="54"/>
+      <c r="G93" s="48"/>
+      <c r="H93" s="55" t="s">
         <v>1043</v>
       </c>
-      <c r="I93" s="52"/>
+      <c r="I93" s="56"/>
       <c r="J93" s="37"/>
-      <c r="K93" s="53" t="s">
+      <c r="K93" s="57" t="s">
         <v>4516</v>
       </c>
-      <c r="L93" s="54"/>
-      <c r="M93" s="44"/>
-      <c r="N93" s="55" t="s">
+      <c r="L93" s="58"/>
+      <c r="M93" s="48"/>
+      <c r="N93" s="59" t="s">
         <v>4593</v>
       </c>
-      <c r="O93" s="55"/>
+      <c r="O93" s="59"/>
       <c r="P93" s="39"/>
-      <c r="Q93" s="55" t="s">
+      <c r="Q93" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="R93" s="55"/>
+      <c r="R93" s="59"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="21"/>
@@ -79159,52 +83087,52 @@
       </c>
     </row>
     <row r="102" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="43"/>
-      <c r="B102" s="45" t="s">
+      <c r="A102" s="47"/>
+      <c r="B102" s="49" t="s">
         <v>3664</v>
       </c>
-      <c r="C102" s="45"/>
-      <c r="D102" s="45"/>
-      <c r="E102" s="45"/>
-      <c r="F102" s="45"/>
-      <c r="G102" s="43"/>
-      <c r="H102" s="46" t="s">
+      <c r="C102" s="49"/>
+      <c r="D102" s="49"/>
+      <c r="E102" s="49"/>
+      <c r="F102" s="49"/>
+      <c r="G102" s="47"/>
+      <c r="H102" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="I102" s="47"/>
-      <c r="J102" s="47"/>
-      <c r="K102" s="47"/>
-      <c r="L102" s="48"/>
-      <c r="M102" s="43"/>
-      <c r="N102" s="45" t="s">
+      <c r="I102" s="51"/>
+      <c r="J102" s="51"/>
+      <c r="K102" s="51"/>
+      <c r="L102" s="52"/>
+      <c r="M102" s="47"/>
+      <c r="N102" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="O102" s="45"/>
-      <c r="P102" s="45"/>
-      <c r="Q102" s="45"/>
-      <c r="R102" s="49"/>
+      <c r="O102" s="49"/>
+      <c r="P102" s="49"/>
+      <c r="Q102" s="49"/>
+      <c r="R102" s="53"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A103" s="44"/>
-      <c r="B103" s="50" t="s">
+      <c r="A103" s="48"/>
+      <c r="B103" s="54" t="s">
         <v>3665</v>
       </c>
-      <c r="C103" s="50"/>
+      <c r="C103" s="54"/>
       <c r="D103" s="37"/>
-      <c r="E103" s="50"/>
-      <c r="F103" s="50"/>
-      <c r="G103" s="44"/>
-      <c r="H103" s="51"/>
-      <c r="I103" s="52"/>
+      <c r="E103" s="54"/>
+      <c r="F103" s="54"/>
+      <c r="G103" s="48"/>
+      <c r="H103" s="55"/>
+      <c r="I103" s="56"/>
       <c r="J103" s="37"/>
-      <c r="K103" s="53"/>
-      <c r="L103" s="54"/>
-      <c r="M103" s="44"/>
-      <c r="N103" s="55"/>
-      <c r="O103" s="55"/>
+      <c r="K103" s="57"/>
+      <c r="L103" s="58"/>
+      <c r="M103" s="48"/>
+      <c r="N103" s="59"/>
+      <c r="O103" s="59"/>
       <c r="P103" s="39"/>
-      <c r="Q103" s="55"/>
-      <c r="R103" s="56"/>
+      <c r="Q103" s="59"/>
+      <c r="R103" s="60"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
@@ -79479,52 +83407,52 @@
       <c r="R111" s="7"/>
     </row>
     <row r="112" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="43"/>
-      <c r="B112" s="45" t="s">
+      <c r="A112" s="47"/>
+      <c r="B112" s="49" t="s">
         <v>1550</v>
       </c>
-      <c r="C112" s="45"/>
-      <c r="D112" s="45"/>
-      <c r="E112" s="45"/>
-      <c r="F112" s="45"/>
-      <c r="G112" s="43"/>
-      <c r="H112" s="46" t="s">
+      <c r="C112" s="49"/>
+      <c r="D112" s="49"/>
+      <c r="E112" s="49"/>
+      <c r="F112" s="49"/>
+      <c r="G112" s="47"/>
+      <c r="H112" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="I112" s="47"/>
-      <c r="J112" s="47"/>
-      <c r="K112" s="47"/>
-      <c r="L112" s="48"/>
-      <c r="M112" s="43"/>
-      <c r="N112" s="45" t="s">
+      <c r="I112" s="51"/>
+      <c r="J112" s="51"/>
+      <c r="K112" s="51"/>
+      <c r="L112" s="52"/>
+      <c r="M112" s="47"/>
+      <c r="N112" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="O112" s="45"/>
-      <c r="P112" s="45"/>
-      <c r="Q112" s="45"/>
-      <c r="R112" s="49"/>
+      <c r="O112" s="49"/>
+      <c r="P112" s="49"/>
+      <c r="Q112" s="49"/>
+      <c r="R112" s="53"/>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A113" s="44"/>
-      <c r="B113" s="50" t="s">
+      <c r="A113" s="48"/>
+      <c r="B113" s="54" t="s">
         <v>1370</v>
       </c>
-      <c r="C113" s="50"/>
+      <c r="C113" s="54"/>
       <c r="D113" s="37"/>
-      <c r="E113" s="50"/>
-      <c r="F113" s="50"/>
-      <c r="G113" s="44"/>
-      <c r="H113" s="51"/>
-      <c r="I113" s="52"/>
+      <c r="E113" s="54"/>
+      <c r="F113" s="54"/>
+      <c r="G113" s="48"/>
+      <c r="H113" s="55"/>
+      <c r="I113" s="56"/>
       <c r="J113" s="37"/>
-      <c r="K113" s="53"/>
-      <c r="L113" s="54"/>
-      <c r="M113" s="44"/>
-      <c r="N113" s="55"/>
-      <c r="O113" s="55"/>
+      <c r="K113" s="57"/>
+      <c r="L113" s="58"/>
+      <c r="M113" s="48"/>
+      <c r="N113" s="59"/>
+      <c r="O113" s="59"/>
       <c r="P113" s="39"/>
-      <c r="Q113" s="55"/>
-      <c r="R113" s="56"/>
+      <c r="Q113" s="59"/>
+      <c r="R113" s="60"/>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
@@ -79803,44 +83731,44 @@
       <c r="R121" s="7"/>
     </row>
     <row r="122" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="43"/>
-      <c r="B122" s="45"/>
-      <c r="C122" s="45"/>
-      <c r="D122" s="45"/>
-      <c r="E122" s="45"/>
-      <c r="F122" s="45"/>
-      <c r="G122" s="43"/>
-      <c r="H122" s="46"/>
-      <c r="I122" s="47"/>
-      <c r="J122" s="47"/>
-      <c r="K122" s="47"/>
-      <c r="L122" s="48"/>
-      <c r="M122" s="43"/>
-      <c r="N122" s="45"/>
-      <c r="O122" s="45"/>
-      <c r="P122" s="45"/>
-      <c r="Q122" s="45"/>
-      <c r="R122" s="49"/>
+      <c r="A122" s="47"/>
+      <c r="B122" s="49"/>
+      <c r="C122" s="49"/>
+      <c r="D122" s="49"/>
+      <c r="E122" s="49"/>
+      <c r="F122" s="49"/>
+      <c r="G122" s="47"/>
+      <c r="H122" s="50"/>
+      <c r="I122" s="51"/>
+      <c r="J122" s="51"/>
+      <c r="K122" s="51"/>
+      <c r="L122" s="52"/>
+      <c r="M122" s="47"/>
+      <c r="N122" s="49"/>
+      <c r="O122" s="49"/>
+      <c r="P122" s="49"/>
+      <c r="Q122" s="49"/>
+      <c r="R122" s="53"/>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A123" s="44"/>
-      <c r="B123" s="50"/>
-      <c r="C123" s="50"/>
+      <c r="A123" s="48"/>
+      <c r="B123" s="54"/>
+      <c r="C123" s="54"/>
       <c r="D123" s="37"/>
-      <c r="E123" s="50"/>
-      <c r="F123" s="50"/>
-      <c r="G123" s="44"/>
-      <c r="H123" s="51"/>
-      <c r="I123" s="52"/>
+      <c r="E123" s="54"/>
+      <c r="F123" s="54"/>
+      <c r="G123" s="48"/>
+      <c r="H123" s="55"/>
+      <c r="I123" s="56"/>
       <c r="J123" s="37"/>
-      <c r="K123" s="53"/>
-      <c r="L123" s="54"/>
-      <c r="M123" s="44"/>
-      <c r="N123" s="55"/>
-      <c r="O123" s="55"/>
+      <c r="K123" s="57"/>
+      <c r="L123" s="58"/>
+      <c r="M123" s="48"/>
+      <c r="N123" s="59"/>
+      <c r="O123" s="59"/>
       <c r="P123" s="39"/>
-      <c r="Q123" s="55"/>
-      <c r="R123" s="56"/>
+      <c r="Q123" s="59"/>
+      <c r="R123" s="60"/>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
@@ -80003,44 +83931,44 @@
       <c r="R131" s="7"/>
     </row>
     <row r="132" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="43"/>
-      <c r="B132" s="45"/>
-      <c r="C132" s="45"/>
-      <c r="D132" s="45"/>
-      <c r="E132" s="45"/>
-      <c r="F132" s="45"/>
-      <c r="G132" s="43"/>
-      <c r="H132" s="46"/>
-      <c r="I132" s="47"/>
-      <c r="J132" s="47"/>
-      <c r="K132" s="47"/>
-      <c r="L132" s="48"/>
-      <c r="M132" s="43"/>
-      <c r="N132" s="45"/>
-      <c r="O132" s="45"/>
-      <c r="P132" s="45"/>
-      <c r="Q132" s="45"/>
-      <c r="R132" s="49"/>
+      <c r="A132" s="47"/>
+      <c r="B132" s="49"/>
+      <c r="C132" s="49"/>
+      <c r="D132" s="49"/>
+      <c r="E132" s="49"/>
+      <c r="F132" s="49"/>
+      <c r="G132" s="47"/>
+      <c r="H132" s="50"/>
+      <c r="I132" s="51"/>
+      <c r="J132" s="51"/>
+      <c r="K132" s="51"/>
+      <c r="L132" s="52"/>
+      <c r="M132" s="47"/>
+      <c r="N132" s="49"/>
+      <c r="O132" s="49"/>
+      <c r="P132" s="49"/>
+      <c r="Q132" s="49"/>
+      <c r="R132" s="53"/>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A133" s="44"/>
-      <c r="B133" s="50"/>
-      <c r="C133" s="50"/>
+      <c r="A133" s="48"/>
+      <c r="B133" s="54"/>
+      <c r="C133" s="54"/>
       <c r="D133" s="37"/>
-      <c r="E133" s="50"/>
-      <c r="F133" s="50"/>
-      <c r="G133" s="44"/>
-      <c r="H133" s="51"/>
-      <c r="I133" s="52"/>
+      <c r="E133" s="54"/>
+      <c r="F133" s="54"/>
+      <c r="G133" s="48"/>
+      <c r="H133" s="55"/>
+      <c r="I133" s="56"/>
       <c r="J133" s="37"/>
-      <c r="K133" s="53"/>
-      <c r="L133" s="54"/>
-      <c r="M133" s="44"/>
-      <c r="N133" s="55"/>
-      <c r="O133" s="55"/>
+      <c r="K133" s="57"/>
+      <c r="L133" s="58"/>
+      <c r="M133" s="48"/>
+      <c r="N133" s="59"/>
+      <c r="O133" s="59"/>
       <c r="P133" s="39"/>
-      <c r="Q133" s="55"/>
-      <c r="R133" s="56"/>
+      <c r="Q133" s="59"/>
+      <c r="R133" s="60"/>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
@@ -80203,44 +84131,44 @@
       <c r="R141" s="7"/>
     </row>
     <row r="142" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="43"/>
-      <c r="B142" s="45"/>
-      <c r="C142" s="45"/>
-      <c r="D142" s="45"/>
-      <c r="E142" s="45"/>
-      <c r="F142" s="45"/>
-      <c r="G142" s="43"/>
-      <c r="H142" s="46"/>
-      <c r="I142" s="47"/>
-      <c r="J142" s="47"/>
-      <c r="K142" s="47"/>
-      <c r="L142" s="48"/>
-      <c r="M142" s="43"/>
-      <c r="N142" s="45"/>
-      <c r="O142" s="45"/>
-      <c r="P142" s="45"/>
-      <c r="Q142" s="45"/>
-      <c r="R142" s="49"/>
+      <c r="A142" s="47"/>
+      <c r="B142" s="49"/>
+      <c r="C142" s="49"/>
+      <c r="D142" s="49"/>
+      <c r="E142" s="49"/>
+      <c r="F142" s="49"/>
+      <c r="G142" s="47"/>
+      <c r="H142" s="50"/>
+      <c r="I142" s="51"/>
+      <c r="J142" s="51"/>
+      <c r="K142" s="51"/>
+      <c r="L142" s="52"/>
+      <c r="M142" s="47"/>
+      <c r="N142" s="49"/>
+      <c r="O142" s="49"/>
+      <c r="P142" s="49"/>
+      <c r="Q142" s="49"/>
+      <c r="R142" s="53"/>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A143" s="44"/>
-      <c r="B143" s="50"/>
-      <c r="C143" s="50"/>
+      <c r="A143" s="48"/>
+      <c r="B143" s="54"/>
+      <c r="C143" s="54"/>
       <c r="D143" s="37"/>
-      <c r="E143" s="50"/>
-      <c r="F143" s="50"/>
-      <c r="G143" s="44"/>
-      <c r="H143" s="51"/>
-      <c r="I143" s="52"/>
+      <c r="E143" s="54"/>
+      <c r="F143" s="54"/>
+      <c r="G143" s="48"/>
+      <c r="H143" s="55"/>
+      <c r="I143" s="56"/>
       <c r="J143" s="37"/>
-      <c r="K143" s="53"/>
-      <c r="L143" s="54"/>
-      <c r="M143" s="44"/>
-      <c r="N143" s="55"/>
-      <c r="O143" s="55"/>
+      <c r="K143" s="57"/>
+      <c r="L143" s="58"/>
+      <c r="M143" s="48"/>
+      <c r="N143" s="59"/>
+      <c r="O143" s="59"/>
       <c r="P143" s="39"/>
-      <c r="Q143" s="55"/>
-      <c r="R143" s="56"/>
+      <c r="Q143" s="59"/>
+      <c r="R143" s="60"/>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
@@ -80403,44 +84331,44 @@
       <c r="R151" s="7"/>
     </row>
     <row r="152" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="43"/>
-      <c r="B152" s="45"/>
-      <c r="C152" s="45"/>
-      <c r="D152" s="45"/>
-      <c r="E152" s="45"/>
-      <c r="F152" s="45"/>
-      <c r="G152" s="43"/>
-      <c r="H152" s="46"/>
-      <c r="I152" s="47"/>
-      <c r="J152" s="47"/>
-      <c r="K152" s="47"/>
-      <c r="L152" s="48"/>
-      <c r="M152" s="43"/>
-      <c r="N152" s="45"/>
-      <c r="O152" s="45"/>
-      <c r="P152" s="45"/>
-      <c r="Q152" s="45"/>
-      <c r="R152" s="49"/>
+      <c r="A152" s="47"/>
+      <c r="B152" s="49"/>
+      <c r="C152" s="49"/>
+      <c r="D152" s="49"/>
+      <c r="E152" s="49"/>
+      <c r="F152" s="49"/>
+      <c r="G152" s="47"/>
+      <c r="H152" s="50"/>
+      <c r="I152" s="51"/>
+      <c r="J152" s="51"/>
+      <c r="K152" s="51"/>
+      <c r="L152" s="52"/>
+      <c r="M152" s="47"/>
+      <c r="N152" s="49"/>
+      <c r="O152" s="49"/>
+      <c r="P152" s="49"/>
+      <c r="Q152" s="49"/>
+      <c r="R152" s="53"/>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A153" s="44"/>
-      <c r="B153" s="50"/>
-      <c r="C153" s="50"/>
+      <c r="A153" s="48"/>
+      <c r="B153" s="54"/>
+      <c r="C153" s="54"/>
       <c r="D153" s="37"/>
-      <c r="E153" s="50"/>
-      <c r="F153" s="50"/>
-      <c r="G153" s="44"/>
-      <c r="H153" s="51"/>
-      <c r="I153" s="52"/>
+      <c r="E153" s="54"/>
+      <c r="F153" s="54"/>
+      <c r="G153" s="48"/>
+      <c r="H153" s="55"/>
+      <c r="I153" s="56"/>
       <c r="J153" s="37"/>
-      <c r="K153" s="53"/>
-      <c r="L153" s="54"/>
-      <c r="M153" s="44"/>
-      <c r="N153" s="55"/>
-      <c r="O153" s="55"/>
+      <c r="K153" s="57"/>
+      <c r="L153" s="58"/>
+      <c r="M153" s="48"/>
+      <c r="N153" s="59"/>
+      <c r="O153" s="59"/>
       <c r="P153" s="39"/>
-      <c r="Q153" s="55"/>
-      <c r="R153" s="56"/>
+      <c r="Q153" s="59"/>
+      <c r="R153" s="60"/>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
@@ -80603,44 +84531,44 @@
       <c r="R161" s="7"/>
     </row>
     <row r="162" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="43"/>
-      <c r="B162" s="45"/>
-      <c r="C162" s="45"/>
-      <c r="D162" s="45"/>
-      <c r="E162" s="45"/>
-      <c r="F162" s="45"/>
-      <c r="G162" s="43"/>
-      <c r="H162" s="46"/>
-      <c r="I162" s="47"/>
-      <c r="J162" s="47"/>
-      <c r="K162" s="47"/>
-      <c r="L162" s="48"/>
-      <c r="M162" s="43"/>
-      <c r="N162" s="45"/>
-      <c r="O162" s="45"/>
-      <c r="P162" s="45"/>
-      <c r="Q162" s="45"/>
-      <c r="R162" s="49"/>
+      <c r="A162" s="47"/>
+      <c r="B162" s="49"/>
+      <c r="C162" s="49"/>
+      <c r="D162" s="49"/>
+      <c r="E162" s="49"/>
+      <c r="F162" s="49"/>
+      <c r="G162" s="47"/>
+      <c r="H162" s="50"/>
+      <c r="I162" s="51"/>
+      <c r="J162" s="51"/>
+      <c r="K162" s="51"/>
+      <c r="L162" s="52"/>
+      <c r="M162" s="47"/>
+      <c r="N162" s="49"/>
+      <c r="O162" s="49"/>
+      <c r="P162" s="49"/>
+      <c r="Q162" s="49"/>
+      <c r="R162" s="53"/>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A163" s="44"/>
-      <c r="B163" s="50"/>
-      <c r="C163" s="50"/>
+      <c r="A163" s="48"/>
+      <c r="B163" s="54"/>
+      <c r="C163" s="54"/>
       <c r="D163" s="37"/>
-      <c r="E163" s="50"/>
-      <c r="F163" s="50"/>
-      <c r="G163" s="44"/>
-      <c r="H163" s="51"/>
-      <c r="I163" s="52"/>
+      <c r="E163" s="54"/>
+      <c r="F163" s="54"/>
+      <c r="G163" s="48"/>
+      <c r="H163" s="55"/>
+      <c r="I163" s="56"/>
       <c r="J163" s="37"/>
-      <c r="K163" s="53"/>
-      <c r="L163" s="54"/>
-      <c r="M163" s="44"/>
-      <c r="N163" s="55"/>
-      <c r="O163" s="55"/>
+      <c r="K163" s="57"/>
+      <c r="L163" s="58"/>
+      <c r="M163" s="48"/>
+      <c r="N163" s="59"/>
+      <c r="O163" s="59"/>
       <c r="P163" s="39"/>
-      <c r="Q163" s="55"/>
-      <c r="R163" s="56"/>
+      <c r="Q163" s="59"/>
+      <c r="R163" s="60"/>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
@@ -80803,44 +84731,44 @@
       <c r="R171" s="7"/>
     </row>
     <row r="172" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="43"/>
-      <c r="B172" s="45"/>
-      <c r="C172" s="45"/>
-      <c r="D172" s="45"/>
-      <c r="E172" s="45"/>
-      <c r="F172" s="45"/>
-      <c r="G172" s="43"/>
-      <c r="H172" s="46"/>
-      <c r="I172" s="47"/>
-      <c r="J172" s="47"/>
-      <c r="K172" s="47"/>
-      <c r="L172" s="48"/>
-      <c r="M172" s="43"/>
-      <c r="N172" s="45"/>
-      <c r="O172" s="45"/>
-      <c r="P172" s="45"/>
-      <c r="Q172" s="45"/>
-      <c r="R172" s="49"/>
+      <c r="A172" s="47"/>
+      <c r="B172" s="49"/>
+      <c r="C172" s="49"/>
+      <c r="D172" s="49"/>
+      <c r="E172" s="49"/>
+      <c r="F172" s="49"/>
+      <c r="G172" s="47"/>
+      <c r="H172" s="50"/>
+      <c r="I172" s="51"/>
+      <c r="J172" s="51"/>
+      <c r="K172" s="51"/>
+      <c r="L172" s="52"/>
+      <c r="M172" s="47"/>
+      <c r="N172" s="49"/>
+      <c r="O172" s="49"/>
+      <c r="P172" s="49"/>
+      <c r="Q172" s="49"/>
+      <c r="R172" s="53"/>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A173" s="44"/>
-      <c r="B173" s="50"/>
-      <c r="C173" s="50"/>
+      <c r="A173" s="48"/>
+      <c r="B173" s="54"/>
+      <c r="C173" s="54"/>
       <c r="D173" s="37"/>
-      <c r="E173" s="50"/>
-      <c r="F173" s="50"/>
-      <c r="G173" s="44"/>
-      <c r="H173" s="51"/>
-      <c r="I173" s="52"/>
+      <c r="E173" s="54"/>
+      <c r="F173" s="54"/>
+      <c r="G173" s="48"/>
+      <c r="H173" s="55"/>
+      <c r="I173" s="56"/>
       <c r="J173" s="37"/>
-      <c r="K173" s="53"/>
-      <c r="L173" s="54"/>
-      <c r="M173" s="44"/>
-      <c r="N173" s="55"/>
-      <c r="O173" s="55"/>
+      <c r="K173" s="57"/>
+      <c r="L173" s="58"/>
+      <c r="M173" s="48"/>
+      <c r="N173" s="59"/>
+      <c r="O173" s="59"/>
       <c r="P173" s="39"/>
-      <c r="Q173" s="55"/>
-      <c r="R173" s="56"/>
+      <c r="Q173" s="59"/>
+      <c r="R173" s="60"/>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
@@ -81003,44 +84931,44 @@
       <c r="R181" s="7"/>
     </row>
     <row r="182" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="43"/>
-      <c r="B182" s="45"/>
-      <c r="C182" s="45"/>
-      <c r="D182" s="45"/>
-      <c r="E182" s="45"/>
-      <c r="F182" s="45"/>
-      <c r="G182" s="43"/>
-      <c r="H182" s="46"/>
-      <c r="I182" s="47"/>
-      <c r="J182" s="47"/>
-      <c r="K182" s="47"/>
-      <c r="L182" s="48"/>
-      <c r="M182" s="43"/>
-      <c r="N182" s="45"/>
-      <c r="O182" s="45"/>
-      <c r="P182" s="45"/>
-      <c r="Q182" s="45"/>
-      <c r="R182" s="49"/>
+      <c r="A182" s="47"/>
+      <c r="B182" s="49"/>
+      <c r="C182" s="49"/>
+      <c r="D182" s="49"/>
+      <c r="E182" s="49"/>
+      <c r="F182" s="49"/>
+      <c r="G182" s="47"/>
+      <c r="H182" s="50"/>
+      <c r="I182" s="51"/>
+      <c r="J182" s="51"/>
+      <c r="K182" s="51"/>
+      <c r="L182" s="52"/>
+      <c r="M182" s="47"/>
+      <c r="N182" s="49"/>
+      <c r="O182" s="49"/>
+      <c r="P182" s="49"/>
+      <c r="Q182" s="49"/>
+      <c r="R182" s="53"/>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A183" s="44"/>
-      <c r="B183" s="50"/>
-      <c r="C183" s="50"/>
+      <c r="A183" s="48"/>
+      <c r="B183" s="54"/>
+      <c r="C183" s="54"/>
       <c r="D183" s="37"/>
-      <c r="E183" s="50"/>
-      <c r="F183" s="50"/>
-      <c r="G183" s="44"/>
-      <c r="H183" s="51"/>
-      <c r="I183" s="52"/>
+      <c r="E183" s="54"/>
+      <c r="F183" s="54"/>
+      <c r="G183" s="48"/>
+      <c r="H183" s="55"/>
+      <c r="I183" s="56"/>
       <c r="J183" s="37"/>
-      <c r="K183" s="53"/>
-      <c r="L183" s="54"/>
-      <c r="M183" s="44"/>
-      <c r="N183" s="55"/>
-      <c r="O183" s="55"/>
+      <c r="K183" s="57"/>
+      <c r="L183" s="58"/>
+      <c r="M183" s="48"/>
+      <c r="N183" s="59"/>
+      <c r="O183" s="59"/>
       <c r="P183" s="39"/>
-      <c r="Q183" s="55"/>
-      <c r="R183" s="56"/>
+      <c r="Q183" s="59"/>
+      <c r="R183" s="60"/>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
@@ -81203,44 +85131,44 @@
       <c r="R191" s="7"/>
     </row>
     <row r="192" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="43"/>
-      <c r="B192" s="45"/>
-      <c r="C192" s="45"/>
-      <c r="D192" s="45"/>
-      <c r="E192" s="45"/>
-      <c r="F192" s="45"/>
-      <c r="G192" s="43"/>
-      <c r="H192" s="46"/>
-      <c r="I192" s="47"/>
-      <c r="J192" s="47"/>
-      <c r="K192" s="47"/>
-      <c r="L192" s="48"/>
-      <c r="M192" s="43"/>
-      <c r="N192" s="45"/>
-      <c r="O192" s="45"/>
-      <c r="P192" s="45"/>
-      <c r="Q192" s="45"/>
-      <c r="R192" s="49"/>
+      <c r="A192" s="47"/>
+      <c r="B192" s="49"/>
+      <c r="C192" s="49"/>
+      <c r="D192" s="49"/>
+      <c r="E192" s="49"/>
+      <c r="F192" s="49"/>
+      <c r="G192" s="47"/>
+      <c r="H192" s="50"/>
+      <c r="I192" s="51"/>
+      <c r="J192" s="51"/>
+      <c r="K192" s="51"/>
+      <c r="L192" s="52"/>
+      <c r="M192" s="47"/>
+      <c r="N192" s="49"/>
+      <c r="O192" s="49"/>
+      <c r="P192" s="49"/>
+      <c r="Q192" s="49"/>
+      <c r="R192" s="53"/>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A193" s="44"/>
-      <c r="B193" s="50"/>
-      <c r="C193" s="50"/>
+      <c r="A193" s="48"/>
+      <c r="B193" s="54"/>
+      <c r="C193" s="54"/>
       <c r="D193" s="37"/>
-      <c r="E193" s="50"/>
-      <c r="F193" s="50"/>
-      <c r="G193" s="44"/>
-      <c r="H193" s="51"/>
-      <c r="I193" s="52"/>
+      <c r="E193" s="54"/>
+      <c r="F193" s="54"/>
+      <c r="G193" s="48"/>
+      <c r="H193" s="55"/>
+      <c r="I193" s="56"/>
       <c r="J193" s="37"/>
-      <c r="K193" s="53"/>
-      <c r="L193" s="54"/>
-      <c r="M193" s="44"/>
-      <c r="N193" s="55"/>
-      <c r="O193" s="55"/>
+      <c r="K193" s="57"/>
+      <c r="L193" s="58"/>
+      <c r="M193" s="48"/>
+      <c r="N193" s="59"/>
+      <c r="O193" s="59"/>
       <c r="P193" s="39"/>
-      <c r="Q193" s="55"/>
-      <c r="R193" s="56"/>
+      <c r="Q193" s="59"/>
+      <c r="R193" s="60"/>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
@@ -81403,44 +85331,44 @@
       <c r="R201" s="7"/>
     </row>
     <row r="202" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="43"/>
-      <c r="B202" s="45"/>
-      <c r="C202" s="45"/>
-      <c r="D202" s="45"/>
-      <c r="E202" s="45"/>
-      <c r="F202" s="45"/>
-      <c r="G202" s="43"/>
-      <c r="H202" s="46"/>
-      <c r="I202" s="47"/>
-      <c r="J202" s="47"/>
-      <c r="K202" s="47"/>
-      <c r="L202" s="48"/>
-      <c r="M202" s="43"/>
-      <c r="N202" s="45"/>
-      <c r="O202" s="45"/>
-      <c r="P202" s="45"/>
-      <c r="Q202" s="45"/>
-      <c r="R202" s="49"/>
+      <c r="A202" s="47"/>
+      <c r="B202" s="49"/>
+      <c r="C202" s="49"/>
+      <c r="D202" s="49"/>
+      <c r="E202" s="49"/>
+      <c r="F202" s="49"/>
+      <c r="G202" s="47"/>
+      <c r="H202" s="50"/>
+      <c r="I202" s="51"/>
+      <c r="J202" s="51"/>
+      <c r="K202" s="51"/>
+      <c r="L202" s="52"/>
+      <c r="M202" s="47"/>
+      <c r="N202" s="49"/>
+      <c r="O202" s="49"/>
+      <c r="P202" s="49"/>
+      <c r="Q202" s="49"/>
+      <c r="R202" s="53"/>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A203" s="44"/>
-      <c r="B203" s="50"/>
-      <c r="C203" s="50"/>
+      <c r="A203" s="48"/>
+      <c r="B203" s="54"/>
+      <c r="C203" s="54"/>
       <c r="D203" s="37"/>
-      <c r="E203" s="50"/>
-      <c r="F203" s="50"/>
-      <c r="G203" s="44"/>
-      <c r="H203" s="51"/>
-      <c r="I203" s="52"/>
+      <c r="E203" s="54"/>
+      <c r="F203" s="54"/>
+      <c r="G203" s="48"/>
+      <c r="H203" s="55"/>
+      <c r="I203" s="56"/>
       <c r="J203" s="37"/>
-      <c r="K203" s="53"/>
-      <c r="L203" s="54"/>
-      <c r="M203" s="44"/>
-      <c r="N203" s="55"/>
-      <c r="O203" s="55"/>
+      <c r="K203" s="57"/>
+      <c r="L203" s="58"/>
+      <c r="M203" s="48"/>
+      <c r="N203" s="59"/>
+      <c r="O203" s="59"/>
       <c r="P203" s="39"/>
-      <c r="Q203" s="55"/>
-      <c r="R203" s="56"/>
+      <c r="Q203" s="59"/>
+      <c r="R203" s="60"/>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
@@ -81603,44 +85531,44 @@
       <c r="R211" s="7"/>
     </row>
     <row r="212" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="43"/>
-      <c r="B212" s="45"/>
-      <c r="C212" s="45"/>
-      <c r="D212" s="45"/>
-      <c r="E212" s="45"/>
-      <c r="F212" s="45"/>
-      <c r="G212" s="43"/>
-      <c r="H212" s="46"/>
-      <c r="I212" s="47"/>
-      <c r="J212" s="47"/>
-      <c r="K212" s="47"/>
-      <c r="L212" s="48"/>
-      <c r="M212" s="43"/>
-      <c r="N212" s="45"/>
-      <c r="O212" s="45"/>
-      <c r="P212" s="45"/>
-      <c r="Q212" s="45"/>
-      <c r="R212" s="49"/>
+      <c r="A212" s="47"/>
+      <c r="B212" s="49"/>
+      <c r="C212" s="49"/>
+      <c r="D212" s="49"/>
+      <c r="E212" s="49"/>
+      <c r="F212" s="49"/>
+      <c r="G212" s="47"/>
+      <c r="H212" s="50"/>
+      <c r="I212" s="51"/>
+      <c r="J212" s="51"/>
+      <c r="K212" s="51"/>
+      <c r="L212" s="52"/>
+      <c r="M212" s="47"/>
+      <c r="N212" s="49"/>
+      <c r="O212" s="49"/>
+      <c r="P212" s="49"/>
+      <c r="Q212" s="49"/>
+      <c r="R212" s="53"/>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A213" s="44"/>
-      <c r="B213" s="50"/>
-      <c r="C213" s="50"/>
+      <c r="A213" s="48"/>
+      <c r="B213" s="54"/>
+      <c r="C213" s="54"/>
       <c r="D213" s="37"/>
-      <c r="E213" s="50"/>
-      <c r="F213" s="50"/>
-      <c r="G213" s="44"/>
-      <c r="H213" s="51"/>
-      <c r="I213" s="52"/>
+      <c r="E213" s="54"/>
+      <c r="F213" s="54"/>
+      <c r="G213" s="48"/>
+      <c r="H213" s="55"/>
+      <c r="I213" s="56"/>
       <c r="J213" s="37"/>
-      <c r="K213" s="53"/>
-      <c r="L213" s="54"/>
-      <c r="M213" s="44"/>
-      <c r="N213" s="55"/>
-      <c r="O213" s="55"/>
+      <c r="K213" s="57"/>
+      <c r="L213" s="58"/>
+      <c r="M213" s="48"/>
+      <c r="N213" s="59"/>
+      <c r="O213" s="59"/>
       <c r="P213" s="39"/>
-      <c r="Q213" s="55"/>
-      <c r="R213" s="56"/>
+      <c r="Q213" s="59"/>
+      <c r="R213" s="60"/>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
@@ -81803,44 +85731,44 @@
       <c r="R221" s="7"/>
     </row>
     <row r="222" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="43"/>
-      <c r="B222" s="45"/>
-      <c r="C222" s="45"/>
-      <c r="D222" s="45"/>
-      <c r="E222" s="45"/>
-      <c r="F222" s="45"/>
-      <c r="G222" s="43"/>
-      <c r="H222" s="46"/>
-      <c r="I222" s="47"/>
-      <c r="J222" s="47"/>
-      <c r="K222" s="47"/>
-      <c r="L222" s="48"/>
-      <c r="M222" s="43"/>
-      <c r="N222" s="45"/>
-      <c r="O222" s="45"/>
-      <c r="P222" s="45"/>
-      <c r="Q222" s="45"/>
-      <c r="R222" s="49"/>
+      <c r="A222" s="47"/>
+      <c r="B222" s="49"/>
+      <c r="C222" s="49"/>
+      <c r="D222" s="49"/>
+      <c r="E222" s="49"/>
+      <c r="F222" s="49"/>
+      <c r="G222" s="47"/>
+      <c r="H222" s="50"/>
+      <c r="I222" s="51"/>
+      <c r="J222" s="51"/>
+      <c r="K222" s="51"/>
+      <c r="L222" s="52"/>
+      <c r="M222" s="47"/>
+      <c r="N222" s="49"/>
+      <c r="O222" s="49"/>
+      <c r="P222" s="49"/>
+      <c r="Q222" s="49"/>
+      <c r="R222" s="53"/>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A223" s="44"/>
-      <c r="B223" s="50"/>
-      <c r="C223" s="50"/>
+      <c r="A223" s="48"/>
+      <c r="B223" s="54"/>
+      <c r="C223" s="54"/>
       <c r="D223" s="37"/>
-      <c r="E223" s="50"/>
-      <c r="F223" s="50"/>
-      <c r="G223" s="44"/>
-      <c r="H223" s="51"/>
-      <c r="I223" s="52"/>
+      <c r="E223" s="54"/>
+      <c r="F223" s="54"/>
+      <c r="G223" s="48"/>
+      <c r="H223" s="55"/>
+      <c r="I223" s="56"/>
       <c r="J223" s="37"/>
-      <c r="K223" s="53"/>
-      <c r="L223" s="54"/>
-      <c r="M223" s="44"/>
-      <c r="N223" s="55"/>
-      <c r="O223" s="55"/>
+      <c r="K223" s="57"/>
+      <c r="L223" s="58"/>
+      <c r="M223" s="48"/>
+      <c r="N223" s="59"/>
+      <c r="O223" s="59"/>
       <c r="P223" s="39"/>
-      <c r="Q223" s="55"/>
-      <c r="R223" s="56"/>
+      <c r="Q223" s="59"/>
+      <c r="R223" s="60"/>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
@@ -82003,44 +85931,44 @@
       <c r="R231" s="7"/>
     </row>
     <row r="232" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="43"/>
-      <c r="B232" s="45"/>
-      <c r="C232" s="45"/>
-      <c r="D232" s="45"/>
-      <c r="E232" s="45"/>
-      <c r="F232" s="45"/>
-      <c r="G232" s="43"/>
-      <c r="H232" s="46"/>
-      <c r="I232" s="47"/>
-      <c r="J232" s="47"/>
-      <c r="K232" s="47"/>
-      <c r="L232" s="48"/>
-      <c r="M232" s="43"/>
-      <c r="N232" s="45"/>
-      <c r="O232" s="45"/>
-      <c r="P232" s="45"/>
-      <c r="Q232" s="45"/>
-      <c r="R232" s="49"/>
+      <c r="A232" s="47"/>
+      <c r="B232" s="49"/>
+      <c r="C232" s="49"/>
+      <c r="D232" s="49"/>
+      <c r="E232" s="49"/>
+      <c r="F232" s="49"/>
+      <c r="G232" s="47"/>
+      <c r="H232" s="50"/>
+      <c r="I232" s="51"/>
+      <c r="J232" s="51"/>
+      <c r="K232" s="51"/>
+      <c r="L232" s="52"/>
+      <c r="M232" s="47"/>
+      <c r="N232" s="49"/>
+      <c r="O232" s="49"/>
+      <c r="P232" s="49"/>
+      <c r="Q232" s="49"/>
+      <c r="R232" s="53"/>
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A233" s="44"/>
-      <c r="B233" s="50"/>
-      <c r="C233" s="50"/>
+      <c r="A233" s="48"/>
+      <c r="B233" s="54"/>
+      <c r="C233" s="54"/>
       <c r="D233" s="37"/>
-      <c r="E233" s="50"/>
-      <c r="F233" s="50"/>
-      <c r="G233" s="44"/>
-      <c r="H233" s="51"/>
-      <c r="I233" s="52"/>
+      <c r="E233" s="54"/>
+      <c r="F233" s="54"/>
+      <c r="G233" s="48"/>
+      <c r="H233" s="55"/>
+      <c r="I233" s="56"/>
       <c r="J233" s="37"/>
-      <c r="K233" s="53"/>
-      <c r="L233" s="54"/>
-      <c r="M233" s="44"/>
-      <c r="N233" s="55"/>
-      <c r="O233" s="55"/>
+      <c r="K233" s="57"/>
+      <c r="L233" s="58"/>
+      <c r="M233" s="48"/>
+      <c r="N233" s="59"/>
+      <c r="O233" s="59"/>
       <c r="P233" s="39"/>
-      <c r="Q233" s="55"/>
-      <c r="R233" s="56"/>
+      <c r="Q233" s="59"/>
+      <c r="R233" s="60"/>
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
@@ -82203,44 +86131,44 @@
       <c r="R241" s="7"/>
     </row>
     <row r="242" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="43"/>
-      <c r="B242" s="45"/>
-      <c r="C242" s="45"/>
-      <c r="D242" s="45"/>
-      <c r="E242" s="45"/>
-      <c r="F242" s="45"/>
-      <c r="G242" s="43"/>
-      <c r="H242" s="46"/>
-      <c r="I242" s="47"/>
-      <c r="J242" s="47"/>
-      <c r="K242" s="47"/>
-      <c r="L242" s="48"/>
-      <c r="M242" s="43"/>
-      <c r="N242" s="45"/>
-      <c r="O242" s="45"/>
-      <c r="P242" s="45"/>
-      <c r="Q242" s="45"/>
-      <c r="R242" s="49"/>
+      <c r="A242" s="47"/>
+      <c r="B242" s="49"/>
+      <c r="C242" s="49"/>
+      <c r="D242" s="49"/>
+      <c r="E242" s="49"/>
+      <c r="F242" s="49"/>
+      <c r="G242" s="47"/>
+      <c r="H242" s="50"/>
+      <c r="I242" s="51"/>
+      <c r="J242" s="51"/>
+      <c r="K242" s="51"/>
+      <c r="L242" s="52"/>
+      <c r="M242" s="47"/>
+      <c r="N242" s="49"/>
+      <c r="O242" s="49"/>
+      <c r="P242" s="49"/>
+      <c r="Q242" s="49"/>
+      <c r="R242" s="53"/>
     </row>
     <row r="243" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A243" s="44"/>
-      <c r="B243" s="50"/>
-      <c r="C243" s="50"/>
+      <c r="A243" s="48"/>
+      <c r="B243" s="54"/>
+      <c r="C243" s="54"/>
       <c r="D243" s="37"/>
-      <c r="E243" s="50"/>
-      <c r="F243" s="50"/>
-      <c r="G243" s="44"/>
-      <c r="H243" s="51"/>
-      <c r="I243" s="52"/>
+      <c r="E243" s="54"/>
+      <c r="F243" s="54"/>
+      <c r="G243" s="48"/>
+      <c r="H243" s="55"/>
+      <c r="I243" s="56"/>
       <c r="J243" s="37"/>
-      <c r="K243" s="53"/>
-      <c r="L243" s="54"/>
-      <c r="M243" s="44"/>
-      <c r="N243" s="55"/>
-      <c r="O243" s="55"/>
+      <c r="K243" s="57"/>
+      <c r="L243" s="58"/>
+      <c r="M243" s="48"/>
+      <c r="N243" s="59"/>
+      <c r="O243" s="59"/>
       <c r="P243" s="39"/>
-      <c r="Q243" s="55"/>
-      <c r="R243" s="56"/>
+      <c r="Q243" s="59"/>
+      <c r="R243" s="60"/>
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
@@ -82403,44 +86331,44 @@
       <c r="R251" s="7"/>
     </row>
     <row r="252" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="43"/>
-      <c r="B252" s="45"/>
-      <c r="C252" s="45"/>
-      <c r="D252" s="45"/>
-      <c r="E252" s="45"/>
-      <c r="F252" s="45"/>
-      <c r="G252" s="43"/>
-      <c r="H252" s="46"/>
-      <c r="I252" s="47"/>
-      <c r="J252" s="47"/>
-      <c r="K252" s="47"/>
-      <c r="L252" s="48"/>
-      <c r="M252" s="43"/>
-      <c r="N252" s="45"/>
-      <c r="O252" s="45"/>
-      <c r="P252" s="45"/>
-      <c r="Q252" s="45"/>
-      <c r="R252" s="49"/>
+      <c r="A252" s="47"/>
+      <c r="B252" s="49"/>
+      <c r="C252" s="49"/>
+      <c r="D252" s="49"/>
+      <c r="E252" s="49"/>
+      <c r="F252" s="49"/>
+      <c r="G252" s="47"/>
+      <c r="H252" s="50"/>
+      <c r="I252" s="51"/>
+      <c r="J252" s="51"/>
+      <c r="K252" s="51"/>
+      <c r="L252" s="52"/>
+      <c r="M252" s="47"/>
+      <c r="N252" s="49"/>
+      <c r="O252" s="49"/>
+      <c r="P252" s="49"/>
+      <c r="Q252" s="49"/>
+      <c r="R252" s="53"/>
     </row>
     <row r="253" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A253" s="44"/>
-      <c r="B253" s="50"/>
-      <c r="C253" s="50"/>
+      <c r="A253" s="48"/>
+      <c r="B253" s="54"/>
+      <c r="C253" s="54"/>
       <c r="D253" s="37"/>
-      <c r="E253" s="50"/>
-      <c r="F253" s="50"/>
-      <c r="G253" s="44"/>
-      <c r="H253" s="51"/>
-      <c r="I253" s="52"/>
+      <c r="E253" s="54"/>
+      <c r="F253" s="54"/>
+      <c r="G253" s="48"/>
+      <c r="H253" s="55"/>
+      <c r="I253" s="56"/>
       <c r="J253" s="37"/>
-      <c r="K253" s="53"/>
-      <c r="L253" s="54"/>
-      <c r="M253" s="44"/>
-      <c r="N253" s="55"/>
-      <c r="O253" s="55"/>
+      <c r="K253" s="57"/>
+      <c r="L253" s="58"/>
+      <c r="M253" s="48"/>
+      <c r="N253" s="59"/>
+      <c r="O253" s="59"/>
       <c r="P253" s="39"/>
-      <c r="Q253" s="55"/>
-      <c r="R253" s="56"/>
+      <c r="Q253" s="59"/>
+      <c r="R253" s="60"/>
     </row>
     <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
@@ -82928,7 +86856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEEB4E4-ABE3-4D3D-A19D-2A5184FCA981}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -83376,7 +87304,7 @@
       <c r="C25" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="63" t="s">
         <v>8927</v>
       </c>
     </row>
@@ -83390,7 +87318,7 @@
       <c r="C26" t="s">
         <v>2782</v>
       </c>
-      <c r="D26" s="59"/>
+      <c r="D26" s="63"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -83402,7 +87330,7 @@
       <c r="C27" t="s">
         <v>2789</v>
       </c>
-      <c r="D27" s="59"/>
+      <c r="D27" s="63"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -83414,7 +87342,7 @@
       <c r="C28" t="s">
         <v>2790</v>
       </c>
-      <c r="D28" s="59"/>
+      <c r="D28" s="63"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -83426,7 +87354,7 @@
       <c r="C29" t="s">
         <v>2791</v>
       </c>
-      <c r="D29" s="59"/>
+      <c r="D29" s="63"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -83438,7 +87366,7 @@
       <c r="C30" t="s">
         <v>2792</v>
       </c>
-      <c r="D30" s="59"/>
+      <c r="D30" s="63"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -83450,7 +87378,7 @@
       <c r="C31" t="s">
         <v>2793</v>
       </c>
-      <c r="D31" s="59"/>
+      <c r="D31" s="63"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -83462,7 +87390,7 @@
       <c r="C32" t="s">
         <v>2794</v>
       </c>
-      <c r="D32" s="59"/>
+      <c r="D32" s="63"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -83507,81 +87435,81 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="54" t="s">
         <v>1173</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54" t="s">
         <v>1174</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54" t="s">
         <v>1175</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="55" t="s">
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="59" t="s">
         <v>1176</v>
       </c>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55" t="s">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59" t="s">
         <v>1177</v>
       </c>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1178</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="54" t="s">
         <v>1179</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="55" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="59" t="s">
         <v>1180</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="50" t="s">
+      <c r="E2" s="59"/>
+      <c r="F2" s="54" t="s">
         <v>1179</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="55" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="59" t="s">
         <v>1180</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="50" t="s">
+      <c r="I2" s="59"/>
+      <c r="J2" s="54" t="s">
         <v>1179</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="55" t="s">
+      <c r="K2" s="54"/>
+      <c r="L2" s="59" t="s">
         <v>1180</v>
       </c>
-      <c r="M2" s="55"/>
-      <c r="N2" s="50" t="s">
+      <c r="M2" s="59"/>
+      <c r="N2" s="54" t="s">
         <v>1179</v>
       </c>
-      <c r="O2" s="50"/>
-      <c r="P2" s="55" t="s">
+      <c r="O2" s="54"/>
+      <c r="P2" s="59" t="s">
         <v>1180</v>
       </c>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="50" t="s">
+      <c r="Q2" s="59"/>
+      <c r="R2" s="54" t="s">
         <v>1179</v>
       </c>
-      <c r="S2" s="50"/>
-      <c r="T2" s="55" t="s">
+      <c r="S2" s="54"/>
+      <c r="T2" s="59" t="s">
         <v>1180</v>
       </c>
-      <c r="U2" s="55"/>
+      <c r="U2" s="59"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -83864,621 +87792,621 @@
       <c r="U7" s="8"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="69" t="s">
         <v>1234</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="67"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="71"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63" t="s">
+      <c r="E9" s="67"/>
+      <c r="F9" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63" t="s">
+      <c r="G9" s="67"/>
+      <c r="H9" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63" t="s">
+      <c r="I9" s="67"/>
+      <c r="J9" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63" t="s">
+      <c r="K9" s="67"/>
+      <c r="L9" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63" t="s">
+      <c r="M9" s="67"/>
+      <c r="N9" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63" t="s">
+      <c r="O9" s="67"/>
+      <c r="P9" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63" t="s">
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="S9" s="63"/>
-      <c r="T9" s="63" t="s">
+      <c r="S9" s="67"/>
+      <c r="T9" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="U9" s="70"/>
+      <c r="U9" s="74"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="67" t="s">
         <v>1256</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63" t="s">
+      <c r="C10" s="67"/>
+      <c r="D10" s="67" t="s">
         <v>1259</v>
       </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63" t="s">
+      <c r="E10" s="67"/>
+      <c r="F10" s="67" t="s">
         <v>1238</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63" t="s">
+      <c r="G10" s="67"/>
+      <c r="H10" s="67" t="s">
         <v>1241</v>
       </c>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63" t="s">
+      <c r="I10" s="67"/>
+      <c r="J10" s="67" t="s">
         <v>1170</v>
       </c>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63" t="s">
+      <c r="K10" s="67"/>
+      <c r="L10" s="67" t="s">
         <v>1171</v>
       </c>
-      <c r="M10" s="63"/>
-      <c r="N10" s="62" t="s">
+      <c r="M10" s="67"/>
+      <c r="N10" s="66" t="s">
         <v>1244</v>
       </c>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62" t="s">
+      <c r="O10" s="66"/>
+      <c r="P10" s="66" t="s">
         <v>1247</v>
       </c>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62" t="s">
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66" t="s">
         <v>1250</v>
       </c>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62" t="s">
+      <c r="S10" s="66"/>
+      <c r="T10" s="66" t="s">
         <v>1251</v>
       </c>
-      <c r="U10" s="64"/>
+      <c r="U10" s="68"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="67" t="s">
         <v>1257</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63" t="s">
+      <c r="C11" s="67"/>
+      <c r="D11" s="67" t="s">
         <v>1260</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63" t="s">
+      <c r="E11" s="67"/>
+      <c r="F11" s="67" t="s">
         <v>1239</v>
       </c>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63" t="s">
+      <c r="G11" s="67"/>
+      <c r="H11" s="67" t="s">
         <v>1242</v>
       </c>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63" t="s">
+      <c r="I11" s="67"/>
+      <c r="J11" s="67" t="s">
         <v>1235</v>
       </c>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63" t="s">
+      <c r="K11" s="67"/>
+      <c r="L11" s="67" t="s">
         <v>1237</v>
       </c>
-      <c r="M11" s="63"/>
-      <c r="N11" s="62" t="s">
+      <c r="M11" s="67"/>
+      <c r="N11" s="66" t="s">
         <v>1245</v>
       </c>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62" t="s">
+      <c r="O11" s="66"/>
+      <c r="P11" s="66" t="s">
         <v>1248</v>
       </c>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62" t="s">
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66" t="s">
         <v>1252</v>
       </c>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62" t="s">
+      <c r="S11" s="66"/>
+      <c r="T11" s="66" t="s">
         <v>1253</v>
       </c>
-      <c r="U11" s="64"/>
+      <c r="U11" s="68"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="72" t="s">
         <v>1258</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68" t="s">
+      <c r="C12" s="72"/>
+      <c r="D12" s="72" t="s">
         <v>1261</v>
       </c>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68" t="s">
+      <c r="E12" s="72"/>
+      <c r="F12" s="72" t="s">
         <v>1240</v>
       </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68" t="s">
+      <c r="G12" s="72"/>
+      <c r="H12" s="72" t="s">
         <v>1243</v>
       </c>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68" t="s">
+      <c r="I12" s="72"/>
+      <c r="J12" s="72" t="s">
         <v>1236</v>
       </c>
-      <c r="K12" s="68"/>
-      <c r="L12" s="71" t="s">
+      <c r="K12" s="72"/>
+      <c r="L12" s="75" t="s">
         <v>1185</v>
       </c>
-      <c r="M12" s="71"/>
-      <c r="N12" s="68" t="s">
+      <c r="M12" s="75"/>
+      <c r="N12" s="72" t="s">
         <v>1246</v>
       </c>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68" t="s">
+      <c r="O12" s="72"/>
+      <c r="P12" s="72" t="s">
         <v>1249</v>
       </c>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68" t="s">
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72" t="s">
         <v>1254</v>
       </c>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68" t="s">
+      <c r="S12" s="72"/>
+      <c r="T12" s="72" t="s">
         <v>1255</v>
       </c>
-      <c r="U12" s="69"/>
+      <c r="U12" s="73"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="76" t="s">
         <v>9292</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="72"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62" t="s">
+      <c r="C14" s="66"/>
+      <c r="D14" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62" t="s">
+      <c r="E14" s="66"/>
+      <c r="F14" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62" t="s">
+      <c r="G14" s="66"/>
+      <c r="H14" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62" t="s">
+      <c r="I14" s="66"/>
+      <c r="J14" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62" t="s">
+      <c r="K14" s="66"/>
+      <c r="L14" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62" t="s">
+      <c r="M14" s="66"/>
+      <c r="N14" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62" t="s">
+      <c r="O14" s="66"/>
+      <c r="P14" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62" t="s">
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62" t="s">
+      <c r="S14" s="66"/>
+      <c r="T14" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="U14" s="62"/>
+      <c r="U14" s="66"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="66" t="s">
         <v>3087</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62" t="s">
+      <c r="C15" s="66"/>
+      <c r="D15" s="66" t="s">
         <v>3090</v>
       </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62" t="s">
+      <c r="E15" s="66"/>
+      <c r="F15" s="66" t="s">
         <v>3081</v>
       </c>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62" t="s">
+      <c r="G15" s="66"/>
+      <c r="H15" s="66" t="s">
         <v>3084</v>
       </c>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62" t="s">
+      <c r="I15" s="66"/>
+      <c r="J15" s="66" t="s">
         <v>3063</v>
       </c>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62" t="s">
+      <c r="K15" s="66"/>
+      <c r="L15" s="66" t="s">
         <v>3066</v>
       </c>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62" t="s">
+      <c r="M15" s="66"/>
+      <c r="N15" s="66" t="s">
         <v>3069</v>
       </c>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62" t="s">
+      <c r="O15" s="66"/>
+      <c r="P15" s="66" t="s">
         <v>3072</v>
       </c>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62" t="s">
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66" t="s">
         <v>3075</v>
       </c>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62" t="s">
+      <c r="S15" s="66"/>
+      <c r="T15" s="66" t="s">
         <v>3078</v>
       </c>
-      <c r="U15" s="62"/>
+      <c r="U15" s="66"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="66" t="s">
         <v>3088</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62" t="s">
+      <c r="C16" s="66"/>
+      <c r="D16" s="66" t="s">
         <v>3091</v>
       </c>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62" t="s">
+      <c r="E16" s="66"/>
+      <c r="F16" s="66" t="s">
         <v>3082</v>
       </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62" t="s">
+      <c r="G16" s="66"/>
+      <c r="H16" s="66" t="s">
         <v>3085</v>
       </c>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62" t="s">
+      <c r="I16" s="66"/>
+      <c r="J16" s="66" t="s">
         <v>3064</v>
       </c>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62" t="s">
+      <c r="K16" s="66"/>
+      <c r="L16" s="66" t="s">
         <v>3067</v>
       </c>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62" t="s">
+      <c r="M16" s="66"/>
+      <c r="N16" s="66" t="s">
         <v>3070</v>
       </c>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62" t="s">
+      <c r="O16" s="66"/>
+      <c r="P16" s="66" t="s">
         <v>3073</v>
       </c>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62" t="s">
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66" t="s">
         <v>3076</v>
       </c>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62" t="s">
+      <c r="S16" s="66"/>
+      <c r="T16" s="66" t="s">
         <v>3079</v>
       </c>
-      <c r="U16" s="62"/>
+      <c r="U16" s="66"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="66" t="s">
         <v>3089</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62" t="s">
+      <c r="C17" s="66"/>
+      <c r="D17" s="66" t="s">
         <v>3092</v>
       </c>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62" t="s">
+      <c r="E17" s="66"/>
+      <c r="F17" s="66" t="s">
         <v>3083</v>
       </c>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62" t="s">
+      <c r="G17" s="66"/>
+      <c r="H17" s="66" t="s">
         <v>3086</v>
       </c>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62" t="s">
+      <c r="I17" s="66"/>
+      <c r="J17" s="66" t="s">
         <v>3065</v>
       </c>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62" t="s">
+      <c r="K17" s="66"/>
+      <c r="L17" s="66" t="s">
         <v>3068</v>
       </c>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62" t="s">
+      <c r="M17" s="66"/>
+      <c r="N17" s="66" t="s">
         <v>3071</v>
       </c>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62" t="s">
+      <c r="O17" s="66"/>
+      <c r="P17" s="66" t="s">
         <v>3074</v>
       </c>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62" t="s">
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66" t="s">
         <v>3077</v>
       </c>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62" t="s">
+      <c r="S17" s="66"/>
+      <c r="T17" s="66" t="s">
         <v>3080</v>
       </c>
-      <c r="U17" s="62"/>
+      <c r="U17" s="66"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="54" t="s">
         <v>8812</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62" t="s">
+      <c r="C19" s="66"/>
+      <c r="D19" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62" t="s">
+      <c r="E19" s="66"/>
+      <c r="F19" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62" t="s">
+      <c r="G19" s="66"/>
+      <c r="H19" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62" t="s">
+      <c r="I19" s="66"/>
+      <c r="J19" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62" t="s">
+      <c r="K19" s="66"/>
+      <c r="L19" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62" t="s">
+      <c r="M19" s="66"/>
+      <c r="N19" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62" t="s">
+      <c r="O19" s="66"/>
+      <c r="P19" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62" t="s">
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62" t="s">
+      <c r="S19" s="66"/>
+      <c r="T19" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="U19" s="62"/>
+      <c r="U19" s="66"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="66" t="s">
         <v>3700</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62" t="s">
+      <c r="C20" s="66"/>
+      <c r="D20" s="66" t="s">
         <v>3703</v>
       </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62" t="s">
+      <c r="E20" s="66"/>
+      <c r="F20" s="66" t="s">
         <v>3694</v>
       </c>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62" t="s">
+      <c r="G20" s="66"/>
+      <c r="H20" s="66" t="s">
         <v>3697</v>
       </c>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62" t="s">
+      <c r="I20" s="66"/>
+      <c r="J20" s="66" t="s">
         <v>3682</v>
       </c>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62" t="s">
+      <c r="K20" s="66"/>
+      <c r="L20" s="66" t="s">
         <v>3685</v>
       </c>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62" t="s">
+      <c r="M20" s="66"/>
+      <c r="N20" s="66" t="s">
         <v>3689</v>
       </c>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62" t="s">
+      <c r="O20" s="66"/>
+      <c r="P20" s="66" t="s">
         <v>3691</v>
       </c>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62" t="s">
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66" t="s">
         <v>3706</v>
       </c>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62" t="s">
+      <c r="S20" s="66"/>
+      <c r="T20" s="66" t="s">
         <v>3709</v>
       </c>
-      <c r="U20" s="62"/>
+      <c r="U20" s="66"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="66" t="s">
         <v>3701</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62" t="s">
+      <c r="C21" s="66"/>
+      <c r="D21" s="66" t="s">
         <v>3704</v>
       </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62" t="s">
+      <c r="E21" s="66"/>
+      <c r="F21" s="66" t="s">
         <v>3695</v>
       </c>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62" t="s">
+      <c r="G21" s="66"/>
+      <c r="H21" s="66" t="s">
         <v>3698</v>
       </c>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62" t="s">
+      <c r="I21" s="66"/>
+      <c r="J21" s="66" t="s">
         <v>3683</v>
       </c>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62" t="s">
+      <c r="K21" s="66"/>
+      <c r="L21" s="66" t="s">
         <v>3686</v>
       </c>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62" t="s">
+      <c r="M21" s="66"/>
+      <c r="N21" s="66" t="s">
         <v>3688</v>
       </c>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62" t="s">
+      <c r="O21" s="66"/>
+      <c r="P21" s="66" t="s">
         <v>3692</v>
       </c>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62" t="s">
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66" t="s">
         <v>3707</v>
       </c>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62" t="s">
+      <c r="S21" s="66"/>
+      <c r="T21" s="66" t="s">
         <v>3710</v>
       </c>
-      <c r="U21" s="62"/>
+      <c r="U21" s="66"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="66" t="s">
         <v>3702</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62" t="s">
+      <c r="C22" s="66"/>
+      <c r="D22" s="66" t="s">
         <v>3705</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62" t="s">
+      <c r="E22" s="66"/>
+      <c r="F22" s="66" t="s">
         <v>3696</v>
       </c>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62" t="s">
+      <c r="G22" s="66"/>
+      <c r="H22" s="66" t="s">
         <v>3699</v>
       </c>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62" t="s">
+      <c r="I22" s="66"/>
+      <c r="J22" s="66" t="s">
         <v>3684</v>
       </c>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62" t="s">
+      <c r="K22" s="66"/>
+      <c r="L22" s="66" t="s">
         <v>3687</v>
       </c>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62" t="s">
+      <c r="M22" s="66"/>
+      <c r="N22" s="66" t="s">
         <v>3690</v>
       </c>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62" t="s">
+      <c r="O22" s="66"/>
+      <c r="P22" s="66" t="s">
         <v>3693</v>
       </c>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62" t="s">
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66" t="s">
         <v>3708</v>
       </c>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62" t="s">
+      <c r="S22" s="66"/>
+      <c r="T22" s="66" t="s">
         <v>3711</v>
       </c>
-      <c r="U22" s="62"/>
+      <c r="U22" s="66"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="64" t="s">
         <v>5147</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="139">
